--- a/Final_annotation_disprepancy_latex_fixed.xlsx
+++ b/Final_annotation_disprepancy_latex_fixed.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosydai/Desktop/Master_thesis/Frontend/annotation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A3FE2-955D-934A-933F-B94476170B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32500" yWindow="540" windowWidth="23520" windowHeight="22600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -640,211 +634,211 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>$$ \\lambda _{n } = \\frac { \\lambda _{u } } { 2 n \\gamma ^{2 } } \left(1 + \\frac { K ^{2 } } { 2 } \right) , $$ while we have destructive interference for even harmonics $n = 2 m , m \\in \\mathbb { N }$ . If we observe the radiation under a small angle $\\vartheta$ from the beam axis, the emission is slightly red-shifted $$ \\lambda = \\frac { \\lambda _{u } } { 2 \\gamma ^{2 } } \left(1 + \\frac { K ^{2 } } { 2 } + \\vartheta ^{2 } \\gamma ^{2 } \right) . $$ As you can see, since $\\vartheta ^{2 } \\gamma ^{2 } &gt; 0$ , the wavelength increases the further away from the axis it is observed. the angular width $\\Delta \\vartheta$ of the radiation cone is inversely proportional to the distance $L$ traveled by the radiation: $\begin{array} { r } { \\Delta \\theta \\propto \\frac { 1 } { L } } \end{array}$ . This occurs because the wavefronts from different points of the trajectory become more aligned the farther they travel, effectively narrowing the observed radiation cone.</t>
-  </si>
-  <si>
-    <t>$$Why is the North Pole the preferred site for this experiment? What will be the circumference of this storage ring? Calculate the radiated power per electron! How would the situation change if we used protons with the same momentum? I.10.7.9 Permanent magnet undulators Which options exist to tune the photon energy of coherent radiation emitted by a permanent magnet undulator (give two options)? How is the critical photon energy from each dipole \in the undulator affected by these two tuning methods? What are the consequences? I.10.7.10 Superconducting undulators Which options exist to tune the photon energy of coherent radiation emitted by a superconducting undulator (give two options)? I.10.7.11 Undulator An undulator has a length of $5 . 1 \mathrm { m }$ and a period $\\lambda _{u } = 1 5 \mathrm { m m }$ . The pole tip field is $B _{t } = 1 . 2 \ : \mathrm { T }$ . For a gap of $g = 1 0 \ : \mathrm { m m }$ , calculate: ‚Äì The peak field on axis $B _{0 }$ , ‚Äì The undulator parameter $K$ . The undulator is installed \in a storage ring with an electron beam energy of $E = 3 { \mathrm { G e V } } .$ Assume electron a beam current of ${ 5 0 0 } \mathrm { m A }$ , beam emittances of $\varepsilon _{x } = 1 \mathrm { n m }$ and $\varepsilon _{y } = 1 \mathrm { p m }$ , alpha functions $\alpha _{x } = \alpha _{y } = 0$ , beta functions of $\beta _{x } = 3 . 5 \mathrm { m }$ and $\beta _{y } = 2 \mathrm { m }$ , and calculate:$$</t>
-  </si>
-  <si>
-    <t>$$‚Äì The wavelength of radiation emitted on axis, ‚Äì The relative bandwidth, ‚Äì The photon flux (hint: if your calculator cannot evaluate Bessel functions, you may read the value of $Q _{n } ( K )$ from the plot \in the lecture), ‚Äì The electron beam size and divergence, ‚Äì The effective source size and divergence, ‚Äì The brilliance of the radiation at the fundamental wavelength. I.10.7.12 Undulators The energy of a synchrotron is increased by $10 \%$ , keeping the beam optics (i.e. the lattice) and the current constant. The synchrotron has an undulator. Assume that the synchrotron radiation integral $I _{2 }$ along the undulator is negligible \in comparison to the total integral around the ring, and that the dispersion is zero \in the undulator: $D _{x } = D _{x ^{\prime } } = 0$ . We will initially assume that the undulator period, the pole tip field, and the gap are unchanged. ‚Äì By how much is the horizontal beam emittance changed? ‚Äì By how much is the photon energy of the fundamental radiation from the undulator changed? ‚Äì By how much is the brilliance of the undulator radiation changed? Assume that the effective source size is dominated by the radiation \in the vertical plane, and by the electron beam phase space \in the horizontal plane.$$</t>
-  </si>
-  <si>
-    <t>$$This undulator is placed \in a storage ring, with an electron beam energy of $E = 4 { \mathrm { G e V } } ,$ and a beam current of $4 0 0 \mathrm { m A }$ . The beam is focused to a waist of $\sigma _{x } = \sigma _{y } = 2 0 \mu \mathrm { m }$ inside the undulator. ‚Äì What range can be reached with the fundamental photon energy? ‚Äì What brilliance can be reached at the fundamental photon energy? ‚Äì Is there a significant flux higher harmonics? I.10.7.19 Undulator radiation Assume an undulator of $1 5 \mathrm { m m }$ period and $5 \mathrm { m }$ length. The pole tip field is $B _{t } = 1 . 5 \ : \mathrm { T }$ , and the gap can be varied between 8 and $1 6 \mathrm { m m }$ . This undulator is placed \in a storage ring, with an electron beam energy of $E = 3 . 2 \mathrm { G e V } ,$ and a beam current of $5 0 0 \mathrm { m A }$ . The beam is focused to a waist of $\sigma _{x } = \sigma _{y } = 2 0 \mu \mathrm { m }$ inside the undulator.$$</t>
-  </si>
-  <si>
-    <t>$$‚Äì What range can be reached with the fundamental photon energy? ‚Äì What brilliance can be reached at the fundamental photon energy? ‚Äì Is there a significant flux higher harmonics? I.10.7.20 Emittance and energy spread The equilibrium emittance of an electron bunch \in a storage ring occurs when factors increasing $\varepsilon$ are compensated by those reducing $\varepsilon$ . ‚Äì Which effect increases the horizontal emittance $\varepsilon _{x }$ ? ‚Äì Which effect decreases the horizontal emittance $\varepsilon _{x }$ ? ‚Äì Which effect increases the vertical emittance $\varepsilon _{y }$ ? ‚Äì Which effect decreases the vertical emittance $\varepsilon _{y }$ ? I.10.7.21 Swiss Light Source The Swiss Light Source (SLS) is a storage ring optimized for synchrotron radiation generation, located at PSI \in Switzerland. An upgraded lattice has been calculated \in view of an upgrade10. Design values for this lattice are given below (the synchrotron radiation integrals have been numerically integrated around the design lattice, including undulators and superbends for radiation generation): Table: Caption: SLS Upgrade Lattice  Body: &lt;html&gt;&lt;body&gt;&lt;table&gt;&lt;tr&gt;&lt;td&gt;Circumference&lt;/td&gt;&lt;td&gt;290.4 m&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electron energy&lt;/td&gt;&lt;td&gt;2.4 GeV&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Horizontal damping partition jx&lt;/td&gt;&lt;td&gt;1.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vertical damping partition jy&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Longitudinal damping partition jz&lt;/td&gt;&lt;td&gt;1.29&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Second synchrotron radiation integral I2&lt;/td&gt;&lt;td&gt;1.186 m-1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Fourth synchrotron radiation integral I4&lt;/td&gt;&lt;td&gt;-0.842 m-1&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;&lt;/html&gt;$$</t>
-  </si>
-  <si>
-    <t>$$How would you measure this radiation? I.10.7.27 Superconducting undulators What is the advantage of using undulators made with superconducting coils, \in comparison to permanentmagnet arrays? What are drawbacks? I.10.7.28 In-vacuum undulators What are the advantages of using \in-vacuum undulators? What are possible difficulties? I.10.7.29 Instrumentation How would you measure the vertical emittance \in a storage ring? I.10.7.30 Top-up operation What are the advantages of top-up operation? What difficulties have to be overcome to establish top-up \in a storage ring? (give one advantage and one difficulty for 1P.; give one more advantage and one more difficulty for $\begin{array} { r } { 1 \mathrm { P } . \star . } \end{array}$ .) I.10.7.31 Fundamental limits The SLS 2.0, a diffraction limited storage ring, aims for an electron energy of $2 . 4 \mathrm { G e V }$ and an emittance of $1 2 6 \mathrm { p m }$ . How far is this away from the de Broglie emittance, i.e. the minimum emittance given by the uncertainty principle? I.10.7.32 Applications Why are synchrotrons important for science? I.10.7.33 Applications What applications for industry are there to synchrotrons? I.10.7.34 Orbit correction Which devices are used to measure and correct the orbit inside a synchrotron?$$</t>
-  </si>
-  <si>
-    <t>$$I.10.7.55 Practical applications of synchrotron radiation The Italian Light Source Elettra is a 3rd generation synchrotron source with $2 5 9 \mathrm { m }$ circumference, and can operate at beam energies of either $2 . 0 \mathrm { G e V }$ or $2 . 4 \mathrm { G e V } ,$ with beam currents of $3 1 0 \mathrm { m A }$ and $1 6 0 \mathrm { m A }$ , respectively. The Machine Director is feeling thirsty, and would like to use Elettra to make a splendid espresso. By assuming that all radiation emitted as SR from the dipole magnets can be converted into heat, calculate how much time is needed for the $2 . 0 \mathrm { G e V }$ beam to heat up the espresso water from $2 0 ^{\circ } \mathrm { C }$ to $8 8 ^{\circ } \mathrm { C }$ . One espresso is $3 0 \mathrm { m L }$ . The radius of curvature \in the dipoles is $5 . 5 \mathrm { m }$ . Neglect potential insertion devices! Hint: the specific heat capacity of water is $\begin{array} { r } { c _{w } = 4 . 1 8 6 \\frac { \mathrm { ~ J ~ } } { \mathrm { g K } } } \end{array}$$$</t>
-  </si>
-  <si>
-    <t>$$File Name:NEW_INSERTION_DEVICE_CONTROL_SYSTEM_FOR_THE_APS_UPGRADE#U2217.pdf NEW INSERTION DEVICE CONTROL SYSTEM FOR THE APS UPGRADE‚àó W. Li‚Ä†, M. Qian, A. Donnelly, R. Dejus, Y. Piao, M. Smith, and M. Ramanathan Advanced Photon Source, Argonne National Laboratory, Lemont, Illinois, USA Abstract New Hybrid Permanent Magnet Undulators (HPMUs) have been designed and manufactured using servo motors for precise and reliable gap motion control for the Advanced Photon Source Upgrade (APS-U) project. Meanwhile, existing HPMUs equipped with legacy stepper motors are systematically replaced with servo motors. In parallel with mechanical modifications of the undulators, a comprehensive upgrade has been implemented for the control of the devices. This upgrade includes integration of standardized industrial components for replacement of motor controllers and motor drives using the Kollmorgen Programmable Controller Multi-axis Master (PCMM) controllers and the AKD2G series servo drives. Soft Input Output Controllers (IOCs) are developed and deployed to replace the legacy VME-based IOCs for both single-period undulators and Revolver undulators. In this paper, we will present the architecture of the new insertion device control system, including control mechanisms, interlock protocols, and tools for diagnostics and troubleshooting. INTRODUCTION New Hybrid Permanent Magnet Undulators (HPMUs) are designed and manufactured with servo motors for gap motion control \in the Advanced Photon Source Upgrade (APS-U) project [1]. Alongside this development, there is a systematic transition for the legacy devices with stepper motors to be equipped with servo motors, along with upgrades \in control hardware. Integral to this transition is the adoption of standardized industrial components of the Programmable Controller Multi-axis Master (PCMM) controllers and AKD2G series servo drives from Kollmorgen [2]. These components offer improved torque performance and reliability for precise gap separation mechanism (GSM) control.$$</t>
-  </si>
-  <si>
-    <t>$$DISCUSSION AND FUTURE PLANS End-to-end OTR simulations will be an important next step to demonstrate the viability of the MLA and DMD methods. Measurements with a laser source will also provide a reliable cross-check value across the DMD and MLA systems. Despite the di!raction limit, the result will be reproducible if DMD pinhole diameters are matched to the MLA apertures. Beam measurements with OTR are planned at CLEAR (CERN, CH) \in the near future. Following this, it would be straightforward to adapt this technology to image other, non-interceptive, radiation sources; this would make the technique non-invasive. A noninvasive single-shot method of measuring emittance would have applications across all accelerator sectors. This is particularly the case for novel acceleration where this system could be used to non-invasively monitor both pre-injection, and post-plasma accelerated electron beams. Finally, work will commence to leverage existing experience of machine learning techniques to increase the insight a single image can provide, from advanced analysis, to machine control. ACKNOWLEDGEMENT This work is supported by the AWAKE-UK phase II project funded by STFC under grant ST/T001941/1 and the STFC Cockcroft Institute core grant ST/V001612/1. REFERENCES [1] H. Wiedemann, "Particle Accelerator Physics", 4th ed., Springer, 2015. [2] M. Minty and F. Zimmermann, "Measurements and Control of Charged Particle Beams", Springer, 2003.$$</t>
-  </si>
-  <si>
-    <t>$$In addition to bremsstrahlung from $\mathrm { \\Delta } X$ -ray tubes, scientists use synchrotron radiation generated by relativistic electrons \in vacuum, as those are accelerated by magnetic fields. Initially perceived as a nuisance \in the context of high-energy physics accelerators, synchrotron radiation emerged as a critical factor limiting the energy gain \in circular electron accelerators. However, its unique characteristics‚Äî such as high brightness, broad spectrum covering from infrared to X-rays, and excellent collimation‚Äî have transformed it into an invaluable asset \in areas ranging from material science to biology. In this chapter, we will encounter accelerators such as the Swiss Light Source (see Fig. I.10.1), that are built solely to generate X-rays. Synchrotrons, as well as free electron lasers, supply users with $\mathrm { \\Delta X }$ -ray beams of unsurpassed brillance, and they attract scientists from various research fields. This brillance is the figure of merit for many experiments using X-rays, and is defined as $$ B = \\frac { \dot { N } _{\\gamma } } { 4 \pi ^{2 } \sigma _{x } \sigma _{y } \sigma _{x ^{\prime } } \sigma _{y ^{\prime } } ( 0 . 1 \% \mathrm { B W } ) } .$$</t>
-  </si>
-  <si>
-    <t>$$ where $E _{\mathrm { n o m } }$ is the nominal beam energy and $$ C _{\\gamma } = \\frac { e ^{2 } } { 3 \varepsilon _{0 } ( m _{e } c ^{2 } ) ^{4 } } . $$ We define the following integral as the second synchrotron radiation integral $$ I _{2 } : = \oint \\frac { 1 } { \rho ^{2 } } d s . $$ From the energy lost per turn $U _{0 }$ and the critical photon energy $E _{c }$ , we can calculate an average number of photons to be approximately $$ \langle n _{\\gamma } \rangle \approx \\frac { 1 6 \pi } { 9 } \alpha _{\mathrm { f i n e } } \\gamma , $$ where $\alpha _{\mathrm { f i n e } } \approx 1 / 1 3 7$ is the fine structure constant. This is a relatively small number; we will therefore have to consider the quantum nature of the radiation, and we will see later how this quantum nature ultimately defines the beam emittance \in an electron storage ring.</t>
-  </si>
-  <si>
-    <t>$$ Equation (I.10.16) becomes $$ \begin{array} { r c l } { { \displaystyle \\frac { \\lambda } { 2 c } } } &amp; { { = } } &amp; { { \displaystyle \\frac { \\lambda _{u } } { 2 \beta c } \left(1 + \\frac { K ^{2 } } { 4 \\gamma ^{2 } } \right) - \\frac { \\lambda _{u } } { 2 c } } } \\ { { \Longrightarrow } } &amp; { { \\lambda } } &amp; { { = } } &amp; { { \displaystyle \\frac { \\lambda _{u } } { 2 \\gamma ^{2 } } ( 1 + K ^{2 } / 2 ) , } } \end{array} $$ where we have used $\beta = \textstyle \sqrt { 1 - \\gamma ^{- 2 } } \approx 1 - \\frac { 1 } { 2 } \\gamma ^{- 2 }$ for $\\gamma \gg 1$ . Radiation emitted at this wavelength adds up coherently \in the forward direction. More generally, the radiation adds up coherently at all odd harmonics $n = 2 m - 1 , m \\in \\mathbb { N }$</t>
-  </si>
-  <si>
-    <t>$$ \begin{array} { r c l } { { \displaystyle \sigma _{r } } } &amp; { { = } } &amp; { { \displaystyle \\frac { 1 } { 4 \pi } \sqrt { \\lambda L } } } \\ { { \displaystyle \sigma _{r ^{\prime } } } } &amp; { { = } } &amp; { { \displaystyle \sqrt { \\frac { \\lambda } { L } } . } } \end{array} $$ This diffraction limit is symmetric \in $x$ and $y$ . The effective source size is $$ \begin{array} { r c l } { \sigma _{( x , y ) , \mathrm { e f f } } } &amp; { = } &amp; { \sqrt { \sigma _{( x , y ) } ^{2 } + \sigma _{r } ^{2 } } } \end{array} $$ $$ \begin{array} { r c l } { \sigma _{( x ^{\prime } , y ^{\prime } ) , \mathrm { e f f } } } &amp; { = } &amp; { \sqrt { \sigma _{( x ^{\prime } , y ^{\prime } ) } ^{2 } + \sigma _{r ^{\prime } } ^{2 } } . } \end{array}</t>
-  </si>
-  <si>
-    <t>$$I.10.6.3 Tomographic imaging and ptychography Tomography is a powerful imaging technique that reconstructs a three-dimensional object from its twodimensional projections. It is used widely \in medicine, where it allows a detailed view of our skeleton. Synchrotron radiation sources, with their brilliant and monochromatic beams, allow reducing the exposure time to less than a millisecond while achieving micrometer resolution. This makes the technique useful for research \in fields ranging from materials science to biology (see Fig. I.10.16). The process involves rotating the sample through a range of angles relative to the X-ray beam, while collecting a series of two-dimensional absorption images. The three-dimensional distribution is reconstructed from the two-dimensional images. The monochromatic and coherent X-ray beams from a synchrotron allow recording phase contrast images, which can capture finer details of biological samples than the usual absorption contrast images. In ptychography, a coherent X-ray beam is scanned across the sample \in overlapping patterns, and the diffraction pattern from each area is recorded. These overlapping diffractions provide redundant information. The reconstruction algorithms used \in ptychography are able to retrieve both the amplitude and phase information from the scattered wavefronts, leading to highly detailed images with nanometer resolution. Ptychography is particularly advantageous for studying materials with fine structural details and can be applied to a wide range of materials, including biological specimens, nanomaterials, and integrated electronic circuits (see e.g. https://youtu.be/GvyTiK9CNO0).$$</t>
-  </si>
-  <si>
-    <t>$$I.10.7.35 Instrumentation How would you measure the bunch length \in a synchrotron? I.10.7.36 Instrumentation How would you measure the stability of the orbit \in a storage ring? I.10.7.37 Detection What possibilities exist to detect X-Rays? How has the development of X-ray detectors influenced experiments at synchrotron sources? I.10.7.38 Monochromators What dispersive element is used to monochromatize X-Rays? What differences exist to monochromators for visible light? I.10.7.39 Refractive index The passage of electromagnetic radiation can be described classically by an index of refraction. What are the properties of the index of refraction of most materials at X-ray wavelengths? I.10.7.40 DLSRs How do longitudinal gradient bends contribute towards the goal of achieving a lower horizontal emittance \in a diffraction limited storage ring? I.10.7.41 Diffraction limited storage rings Which of the following methods are employed to reduce the horizontal emittance \in the DLSR SLS 2.0? $a$ ) Minimize the dispersion \in areas of large dipole fields $b$ ) Maximize coupling between horizontal and vertical plane $c$ ) Increase the beam pipe diameter to reduce wake fields $d$ ) Alternate between insertion devices with horizontal and vertical polarization I.10.7.42 Globatron Enrico Fermi proposed the Globatron, a storage ring for protons suspended \in space around the earth. This would have $5 \mathrm { P e V }$ proton beams \in a ring with $8 0 0 0 { \mathrm { k m } }$ radius (Fig. I.10.18). Calculate:$$</t>
-  </si>
-  <si>
-    <t>$$d) . . . requires the rotation of the sample around three orthogonal axes I.10.7.52 Undulator radiation Derive the formula for the fundamental wavelength of undulator radiation emitted at a small angle $\\theta$ : $$ \\lambda = \\frac { \\lambda _{u } } { 2 \\gamma ^{2 } } \left(1 + \\frac { K ^{2 } } { 2 } + \\gamma ^{2 } \\theta ^{2 } \right) $$ from the condition of constructive interference of the radiation emitted by consecutive undulator periods! I.10.7.53 Binding energies In which atom are the core electrons most strongly bound to the nucleus? a) Neon b) Copper c) Lithium d) Osmium e) Helium $f$ ) Iron g) Sodium $h$ ) Gold What about the valence electrons? I.10.7.54 Electron and X-Ray diffraction In comparison to diffractive imaging using electrons, X-ray diffraction. . $a$ ). . . has the advantage that the sample does not need to be \in vacuum b). . . gives a stronger diffraction signal for all crystal sizes $c$ ). . . generates the same signal for all atoms \in the crystal What are the consequences for the optimum sample thickness for electron diffraction \in comparison to X-ray diffraction?$$</t>
-  </si>
-  <si>
-    <t>$$‚Äì Vacuum system: as a result of the smaller inner bore of the magnets, the vacuum chamber diameter needs to be reduced to a point where a conventional pumping system becomes difficult to implement. A key enabling technology is the use of a distributed getter pump system, where the entire vacuum chamber is coated with a non-evaporable getter (NEG); ‚Äì Generation of hard X-rays: the strong field \in longitudinal gradient bends, peaking at 4. . . 6 Tesla, results \in very hard X-rays, up to a photon energy of $8 0 \mathrm { k e V }$ ; ‚Äì Momentum compaction factor: when designing a magnetic lattice that employs LGBs and reverse bends, one can achieve a situation where a higher-energy particle takes a shorter path. This can then result \in a negative momentum compaction factor of the ring (like \in proton synchrotrons below transition energy). The Paul Scherrer Institut is upgrading its storage ring \in the year 2024, making use of the principles outlined \in this section [5]. I.10.5 Interaction of $\mathbf { X }$ -rays with matter In the subsequent sections, we will look at the interaction of X-rays with matter, and the use of X-rays for experiments. To understand the processes that lead to absorption, scattering, and diffraction, we will proceed \in three steps, and look at the interaction of $\mathrm { \\Delta X }$ -rays with:$$</t>
-  </si>
-  <si>
-    <t>$$ Figure I.10.2 shows the development of the peak brilliance of $\mathrm { \\Delta X }$ -ray sources during the last century. Scientists working \in synchrotron radiation facilities have gotten accustomed to an extremely high flux, as well as an excellent stability of their X-ray source. The flux is controlled on the permille level, and the position stability is measured \in micrometers. Synchrotron radiation was first observed on April 24, 1947 by Herb Pollock, Robert Langmuir, Frank Elder, and Anatole Gurewitsch, when they saw a gleam of bluish-white light emerging from the transparent vacuum tube of their new $7 0 \mathrm { M e V }$ electron synchrotron at General Electric‚Äôs Research Laboratory \in Schenectady, New York1. It was first considered a nuisance because it caused the particles to lose energy, but it was recognised \in the 1960s as radiation with exceptional properties that overcame the shortcomings of X-ray tubes. Furthermore, it was discovered that the emission of radiation improved the emittance of the beams \in electron storage rings, and additional series of dipole magnets were installed at the Cambridge Electron Accelerator (CEA) at Harvard University to provide additional damping of betatron and synchrotron oscillations. The evolution of synchrotron sources has proceeded \in four generations, where each new generation made use of unique new features \in science and engineering to increase the coherent flux available to experiments:</t>
-  </si>
-  <si>
-    <t>$$I.10.3.1 Vertical damping To begin, we will focus our attention on the vertical coordinate $y$ ; it turns out that this is the simplest case. We will look at one electron \in the bunch, and choose the canonical variables $y$ for position (measured relative to the reference orbit) and $p _{y }$ to denote vertical momentum. Let us consider an electron possessing a momentum $p$ . Upon the emission of a photon with momentum $d p$ , there is an associated change \in momentum, which we will represent as $- d p$ . As we have seen before, it is an intrinsic property of radiation emission by relativistic particles that it predominantly occurs \in the forward direction. It is therefore a useful approximation to consider the momentum of the electron $p$ and the emitted photon $d p$ to be collinear. This collinearity is depicted \in Fig. I.10.6. The new momentum of the electron is then $$ \begin{array} { r c l } { { \vec { p ^{\prime } } } } &amp; { { = } } &amp; { { \vec { p } - d \vec { p } } } \\ { { } } &amp; { { \approx } } &amp; { { \vec { p } - \displaystyle \\frac { \vec { p ^{\prime } } } { P _{0 } } d p } } \\ { { } } &amp; { { = } } &amp; { { \vec { p } \left(1 - \displaystyle \\frac { d \vec { p ^{\prime } } } { P _{0 } } \right) , } } \end{array}$$</t>
-  </si>
-  <si>
-    <t>$$The natural energy spread $\\Delta E / E$ is given by $$ \\frac { \\Delta E } { E } = \sqrt { \\frac { C _{q } \\gamma ^{2 } } { 2 j _{z } \langle \rho \rangle } } , $$ where $\langle \rho \rangle$ is the average radius of curvature \in the storage ring. Finally, \in the vertical phase space of accelerators, the dynamics are somewhat different than \in the horizontal or longitudinal phase spaces. This is primarily because of typically negligible dispersion \in the vertical plane, and because this phase space is typically not coupled to the other dimensions. This means that, under normal conditions, variations \in the energy of a particle do not significantly affect its vertical position. However, that does not exempt the vertical phase space from the effects of quantum excitation. Three effects remain that counterbalance radiation damping even \in the vertical plane: ‚Äì A (small) vertical component of the emitted photon, ‚Äì Intra-beam scattering, ‚Äì A remnant coupling between the horizontal and vertical plane. In most accelerators, the last point usually dominates, despite a careful set-up of the accelerator lattice that avoids coupling terms. It is worth noting that quantum effects determine macroscopic effects such as the beam size \in a synchrotron. In fact, the value of Planck‚Äôs constant $\hbar$ has just the right magnitude to make practical the construction of large electron synchrotrons [3].$$</t>
-  </si>
-  <si>
-    <t>$$ d \varepsilon _{y } = - \varepsilon _{y } \\frac { U _{0 } } { E _{\mathrm { { n o m } } } } . $$ Using the revolution period $T _{0 }$ $$ \\frac { d \varepsilon _{y } } { d t } = - \varepsilon _{y } \\frac { U _{0 } } { E _{\mathrm { n o m } } T _{0 } } . $$ The damping time is thus $$ \tau _{y } = 2 \\frac { E _{\mathrm { { n o m } } } } { U _{0 } } T _{0 } . $$ We use the (classical) result from Equation I.10.9 for the power radiated by a particle of charge $e$ and energy $E _{\mathrm { n o m } }$ . Integrating around the ring, we have the energy loss per turn $$ \begin{array} { l l l } { { U _{0 } } } &amp; { { = } } &amp; { { \displaystyle \oint P _{\\gamma } d t } } \\ { { } } &amp; { { = } } &amp; { { \displaystyle \oint \\frac { 1 } { c } P _{\\gamma } d s } } \\ { { } } &amp; { { = } } &amp; { { \displaystyle \\frac { C _{\\gamma } } { 2 \pi } E _{\mathrm { n o m } } ^{4 } \oint \\frac { 1 } { \rho ^{2 } } d s . } } \end{array}</t>
-  </si>
-  <si>
-    <t>$$Equation I.10.40 gives the natural horizontal emittance of the beam. A deeper inspection reveals that the main contributions to the emittance growth occur \in regions where the dispersion $\eta _{x }$ is large and the radius of curvature $\rho$ is small, i.e. the magnetic field $B$ is large. This makes intuitively sense. An emission of a hard X-ray photon occurs predominantly \in strong magnetic fields. If this coincides with a large dispersion, the effect on the beam emittance is maximized, as the electron losing energy is now on the wrong orbit for its energy. It is obviously impossible to build a storage ring without dispersion, or without magnetic fields. A careful design of the lattice can nevertheless minimize emittance growth \in dipoles: ‚Äì Multi-bend achromats: unlike traditional designs that use one or two bend magnets after each straight section, a multi-bend achromat (MBA) lattice employs multiple bending magnets, interleaved with quadrupoles and sextupoles that correct for the chromaticity. The quadrupoles re-focus the beam periodically, keeping the dispersion small. By dividing the total bending angle among several magnets, the strength of each magnet can be reduced, leading to less radiation emission per bend and thus to a smaller horizontal emittance;$$</t>
-  </si>
-  <si>
-    <t>$$Radiation is emitted by electrons with a wide energy spectrum. As an example, calculate the critical energy of the photons emitted by $3 0 0 \mathrm { G e V }$ electrons \in a uniform magnetic field of $3 0 \mathrm { n T }$ ! How can astrophysicists distinguish light that originates from synchrotron radiation from black body radiation? I.10.7.5 Large Hadron Collider A proton circulates \in LHC. Assume a circumference of $2 6 . 7 ~ \mathrm { k m }$ , a particle energy of $6 . 5 ~ \mathrm { T e V } ,$ and a magnetic field of $7 . 7 \mathrm { T } .$ . Calculate: ‚Äì The Lorentz factor $\\gamma$ , ‚Äì The radius of curvature that the protons make \in the dipoles, ‚Äì The critical energy of the synchrotron radiation, ‚Äì The energy emitted through synchrotron radiation \in the dipoles by one proton \in one turn, ‚Äì Which fraction of the circumference is occupied by dipole magnets? I.10.7.6 Future Circular Collider: FCC-ee As a first step towards a future circular collider, physicists are considering an electron accelerator with $1 0 0 \mathrm { k m }$ circumference (FCC-ee). The production of Higgs bosons (through the $Z H$ channel) is maximized when running this ring on resonance at a particle energy of $1 2 0 { \mathrm { G e V } } .$ For an electron circulating \in this ring, calculate:$$</t>
-  </si>
-  <si>
-    <t>$$‚Äì The required magnetic field \in the dipoles, ‚Äì The losses through synchrotron radiation per particle per turn. How would the situation change for electrons of the same energy? Calculate the required magnetic field \in the dipoles, and the synchrotron losses! I.10.7.43 A particle accelerator on the Moon Imagine a particle accelerator around the circumference of a great circle of the Moon (Fig. I.10.19) [8]. Assuming a circumference of $1 1 0 0 0 { \mathrm { k m } }$ , and a dipole field of $2 0 \mathrm { T }$ , what center-of-mass energy could be achieved ‚Äì For electrons? ‚Äì For protons? For simplicity, assume the same dipole filling factor as \in LHC, i.e. $67 \%$ of the circumference is occupied by dipole magnets. What is the fundamental problem with the electron accelerator? (hint: calculate the synchrotron radiation power loss per turn, and compare to the space available for acceleration. Which accelerating gradient would be required?) Calculate the horizontal damping time for proton beams circulating \in this ring. What are the implications for the operation? I.10.7.44 Diffraction Why is diffraction often used \in place of imaging when using X-rays? What is the phase problem \in X-ray diffraction?$$</t>
-  </si>
-  <si>
-    <t>$$File Name:LANDAU_DAMPING_WITH_A_TRANSVERSELY_GAUSSIAN_PULSED.pdf LANDAU DAMPING WITH A TRANSVERSELY GAUSSIAN PULSED ELECTRON LENS V. Gubaidulin‚àó, Synchrotron SOLEIL, Saint-Aubin, France O. Boine-Frankenheim1, V. Kornilov, GSI Helmholtzzentrum, Darmstadt, Germany 1also at TU Darmstadt, Darmstadt, Germany Abstract A pulsed electron lens produces a betatron tune shift along a hadron bunch as a function of the longitudinal coordinates, which is a longitudinal detuning. An example of transverse detuning is the tune shifts due to octupole magnets. This paper considers a pulsed electron lens as a measure to mitigate the head-tail instabilities. The analytical predictions are compared with the results of the particle tracking simulations. A pulsed electron lens is demonstrated to be a source of tune spread with two components: a static one, leading to Landau damping; and a dynamic one, leading to an effective impedance modification, which we demonstrate analytically and \in our particle tracking simulations. The effective impedance modification can be important for beam stability due to devices causing longitudinal detuning, especially for nonzero head-tail modes. We explore two types of pulsed electron lenses: one with a homogeneous transverse distribution and another with a Gaussian distribution. INTRODUCTION Landau damping is [1] one of the mitigation measures against coherent beam instabilities [2, 3]. Recently, several works [4‚Äì8] studied mitigation of transverse instabilities by Landau damping with longitudinal detuning. Longitudinal detuning is detuning with longitudinal coordinates. One common type of longitudinal detuning is chromaticity. It depends on energy offset $\delta$ . Other examples of detuning with longitudinal coordinate ùëß are a radio frequency quadrupole cavity (RFQ) or a pulsed electron lens (PEL).$$</t>
-  </si>
-  <si>
-    <t>$$Images of the dispersed electrons are recorded along with the relevant beam parameters on a shot-to-shot basis. The energy gain achieved for each shot is determined as described \in the Methods section. Figure 2 shows one example of the electron energy distribution between 35 and $1 0 0 \mathrm { G e V }$ after traversing the plasma. The angle $\\theta _{0 }$ at the plasma exit for this particular event was calculated to be smaller than $1 0 0 \mu \mathrm { r a d }$ , which is negligible; therefore energy relates directly to position. The highest electron energy is $8 5 \pm 7 \mathrm { G e V } _{\mathrm { ; } }$ , indicating that some electrons \in the tail of the beam with an initial energy of 41 GeV have more than doubled their initial energy. The implied peak accelerating field of ${ \sim } 5 2 \mathrm { G V } \mathrm { m } ^{- 1 }$ is consistent with the fields previously measured \in a $1 0 \mathrm { - c m }$ -long plasma11, indicating that the energy gain is scalable by extending the length of the plasma at least up to $8 5 \mathrm { c m }$ . With this plasma length, \in a series of 800 events, $3 0 \%$ showed an energy gain of more than $3 0 \mathrm { G e V }$ . Variations \in the measured energy gain were correlated to fluctuations \in the peak current of the incoming electron beam.$$</t>
-  </si>
-  <si>
-    <t>$$File Name:Hermann_et_al._-_2021_-_Electron_beam_transverse_phase_space_tomography_using_nanofabricated_wire_scanners_with_submicromete.pdf Electron beam transverse phase space tomography using nanofabricated wire scanners with submicrometer resolution Benedikt Hermann ,1,3,\* Vitaliy A. Guzenko,1 Orell R. H√ºrzeler,1 Adrian Kirchner,2 Gian Luca Orlandi ,1 Eduard Prat ,1 and Rasmus Ischebeck1 1Paul Scherrer Institut, 5232 Villigen PSI, Switzerland 2Friedrich-Alexander-Universit√§t Erlangen-N√ºrnberg, 91054 Erlangen, Germany 3Institute of Applied Physics, University of Bern, 3012 Bern, Switzerland (Received 27 October 2020; accepted 28 January 2021; published 15 February 2021) Characterization and control of the transverse phase space of high-brightness electron beams is required at free-electron lasers or electron diffraction experiments for emittance measurement and beam optimization as well as at advanced acceleration experiments. Dielectric laser accelerators or plasma accelerators with external injection indeed require beam sizes at the micron level and below. We present a method using nano-fabricated metallic wires oriented at different angles to obtain projections of the transverse phase space by scanning the wires through the beam and detecting the amount of scattered particles. Performing this measurement at several locations along the waist allows assessing the transverse distribution at different phase advances. By applying a novel tomographic algorithm the transverse phase space density can be reconstructed. Measurements at the ACHIP chamber at SwissFEL confirm that the transverse phase space of micrometer-sized electron beams can be reliably characterized using this method.$$</t>
-  </si>
-  <si>
-    <t>$$Based on the description above, one can identify two main factors affecting the likelihood of electron cloud buildup: (i) the survival rate of a low-energy electron \in the beam chamber between successive bunch passages and (ii) the amount of secondary electron emission. The former is influenced by several machine and beam parameters, but foremost the dimensions of the beam chamber and the bunch spacing. In addition, externally applied electromagnetic fields can influence the electron lifetime, for example \in quadrupole magnets, the lifetime can be extended through magnetic trapping [4], while solenoid fields can reduce the lifetime by bending the electrons back towards the chamber surface [5]. The secondary electron emission is determined by the Secondary Electron Yield (SEY), which defines the amount of emitted secondary electrons as a function of the energy and incidence angle of an impinging electron. For a virgin material, or after air exposure, secondary emission is generally high, but can subsequently reduce to a lower level through beam-induced conditioning, or scrubbing, i.e. irradiation by the electrons of the electron cloud. For most commonly used beam chamber materials, the SEY is a non-monotonic function of the electron energy, with a limited energy range where the surface acts as a net emitter. Consequently, the secondary emission depends strongly on the bunch intensity and length, since they both affect the instantaneous beam field which determines the energy of accelerated electrons. In combination with the cyclotron motion of the electrons around magnetic field lines, this leads to a strong dependence of the transverse shape of the electron cloud on the applied field, with characteristic patterns for each magnetic multipole.$$</t>
-  </si>
-  <si>
-    <t>$$The electrons at the ACHIP interaction point at SwissFEL possess a mean energy of $3 . 2 ~ \mathrm { G e V }$ and are strongly focused by an \in-vacuum permanent magnet triplet [11]. A six-dimensional positioning system (hexapod) at the center of the chamber is used to exchange, align, and scan samples or a wire scanner for diagnostics. In this manuscript, we demonstrate that the transverse phase space of a focused electron beam can be precisely characterized with a series of wire scans at different angles and locations along the waist. The transverse phase space $( x - x ^{\prime }$ and $y - y ^{\prime } )$ is reconstructed with a novel particlebased tomographic algorithm. This technique goes beyond conventional one-dimensional wire scanners since it allows us to assess the four-dimensional transverse phase space. We apply this algorithm to a set of wire scanner measurements performed with nano-fabricated wires at the ACHIP chamber at SwissFEL and reconstruct the dynamics of the transverse phase space of the focused electron beam along the waist. II. EXPERIMENTAL SETUP A. Accelerator setup The generation and characterization of a micrometer sized electron beam \in the ACHIP chamber at SwissFEL requires a low-emittance electron beam. The beam size along the accelerator is given by:$$</t>
-  </si>
-  <si>
-    <t>$$INTRODUCTION Phase space tomography [1, 2] is a powerful technique for characterising a beam‚Äôs charge distribution \in phase space \in one or more degrees of freedom. Tomography \in two transverse degrees of freedom provides a detailed understanding of the beam substructure, and also allows for characterization of the betatron coupling. However, applying the technique for multiple degrees of freedom generally requires significant computational resources. Storage of a 4D phase space distribution with $N$ data points along each axis requires a data structure with $N ^{4 }$ values, and the memory resources required to manipulate the input data can be much larger. High-dimensional tomography methods may be of particular use for characterizing and operating advanced accelerators, such as high-brightness Free Electron Laser (FEL) drivers and injectors for machines using novel acceleration methods. Recent simulation work [3, 4] has demonstrated a technique for 5D tomography, revealing the transverse phase space as a function of longitudinal position. Techniques leading to a reduction \in the computational resources required for high-dimensional tomography are therefore of widespread interest. Tomography Section (3.36 m) Photoinjector + Laser S-Baud Linac =I Quadrupole YAG Screen RF Structure Beam Dump In principle, images can be stored \in a compressed form (for example, as discrete cosine transforms) to reduce the size of the data structures involved \in tomography, while retaining sufficient information to reconstruct the phase space to a good resolution. However, conventional tomography algorithms are formulated on the basis that the input data are direct projections of the initial phase space (e.g. beam images obtained for a range of betatron phase advances). Therefore, it is not obvious how compressed data can be used \in the context of an established tomography algorithm.$$</t>
-  </si>
-  <si>
-    <t>$$One thus receives a series of two-dimensional diffraction patterns. The intensities of the diffracted spots relate to the absolute square of the Fourier transform of the electron density, and their positions correspond to the inverse of the spacing between planes of atoms \in the crystal, as described by Bragg‚Äôs law. However, directly computing the electron density from the diffraction pattern is not straightforward due to the phase problem: the detector records only the intensity of the diffracted waves, losing information about their phases. In essence, we only measure the amplitude of the Fourier transform, not its phase, yet both are necessary for accurate reconstruction. Various methods, such as using a known similar structure as a model (molecular replacement) or adding heavy atoms to the crystal (multiple isomorphous replacement), help \in estimating these phases. Once the phases are estimated and combined with the intensities, the inverse Fourier transform is used to compute the electron density. The peaks \in this electron density map correspond to the locations of the atoms \in the crystal. By interpreting this map, scientists can determine the precise arrangement of atoms and thus the molecular structure of the sample. Machine learning (ML) is emerging as a powerful tool \in various stages of structure determination from $\mathrm { \\Delta } X$ -ray crystallography data.$$</t>
-  </si>
-  <si>
-    <t>$$To lower the emittance of the beam, the bunch charge is reduced to approximately $1 ~ \mathrm { p C }$ from the nominal bunch charge at SwissFEL ( $1 0 \mathrm { p C }$ to $2 0 0 \ \mathrm { p C } )$ . The laser aperture and pulse energy at the photo-cathode, as well as the current of the gun solenoid, are empirically tuned to minimize the emittance for the reduced charge. The emittance is measured at different locations along the accelerator with a conventional quadrupole scan [15] and a scintillating YAG:Ce screen. After the second bunch compressor, which is the last location for emittance measurements before the ACHIP chamber, the normalized horizontal and vertical emittances are found to be $9 3 \mathrm { n m }$ rad and $1 5 7 ~ \mathrm { n m }$ rad with estimated uncertainties below $10 \%$ . The difference between the horizontal and vertical emittance could be the result of an asymmetric laser spot on the cathode. The electron energy at this emittance measurement location is $2 . 3 { \mathrm { G e V . } }$ Subsequently, the beam is accelerated further to $3 . 2 \mathrm { G e V }$ and directed to the Athos branch by two resonant deflecting magnets (kickers) and a series of dipole magnets [16]. Finally, the beam is transported to the beam stopper upstream of the Athos undulators.$$</t>
-  </si>
-  <si>
-    <t>$$Table: Caption: TABLE I. Normalized emittance $\varepsilon _{n }$ , Twiss $\beta$ -function at the waist $\beta ^{* }$ , and corresponding beam size $\sigma ^{* }$ of the reconstructed transverse phase space distribution.  Body: &lt;html&gt;&lt;body&gt;&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Œµn (nm rad)&lt;/td&gt;&lt;td&gt;Œ≤*(cm)&lt;/td&gt;&lt;td&gt;0* (Œºm)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;186¬±15&lt;/td&gt;&lt;td&gt;3.7 ¬± 0.2&lt;/td&gt;&lt;td&gt;1.04 ¬± 0.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;y&lt;/td&gt;&lt;td&gt;278¬±18&lt;/td&gt;&lt;td&gt;3.7 ¬±0.2&lt;/td&gt;&lt;td&gt;1.26 ¬± 0.05&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;&lt;/html&gt; Figure 7 shows the beam size evolution around the waist. We quantify the normalized emittance and $\beta$ -function of the distribution by fitting a 2D Gauss function to the distribution \in the $( x , x ^{\prime } )$ and $( y , y ^{\prime } )$ phase space. The 1- $\mathbf { \sigma } \cdot \sigma _{\mathbf { \\lambda } }$ ellipse of the fit is drawn \in blue \in all subplots of Fig. 6. We use the following definition for the normalized emittance: $$ \varepsilon _{n } = \\gamma A _{1 \sigma } / \pi , $$ where $A _{1 \sigma }$ is the area of the $_{1 - \sigma }$ ellipse \in transverse phase space. The values for the reconstructed emittance, minimal $\beta$ -function $( \beta ^{* } )$ and beam size at the waist are summarized \in Table I. The measurement range $( 8 \mathrm { c m } )$ along the waist with $\beta ^{* } = 3 . 7$ cm covers a phase advance of around $9 0 ^{\circ }$ .$$</t>
-  </si>
-  <si>
-    <t>$$ACKNOWLEDGMENTS We would like to express our gratitude to the SwissFEL operations crew, the PSI expert groups, and the entire ACHIP collaboration for their support with these experiments. We would like to thank Thomas Schietinger for careful proofreading of the manuscript. This research is supported by the Gordon and Betty Moore Foundation through Grant No. GBMF4744 (ACHIP) to Stanford University. APPENDIX A: ERROR ESTIMATION 1. Position errors The uncertainty of the position of the wire scanner with respect to the electron beam is affected by the readout precision of the hexapod $( &lt; 1 ~ \mathrm { n m } )$ , vibrational motion of the hexapod $\phantom { + } &lt; 1 0 ~ \mathrm { { n m } } )$ and position jitter of the electron beam, which at SwissFEL is typically a few-percent of the beam size. The orbit of the electron beam is measured with BPMs along the accelerator. Unfortunately, the BPMs along the Athos branch of SwissFEL have not been calibrated (the measurement took place during the commissioning phase of Athos). Nevertheless, we tried correcting the orbit shot-by-shot based on five BPMs and the magnetic lattice around the interaction point. However, it does not reduce the measured beam emittance, as their position reading is not precise enough to correct orbit jitter at the wire scanner location correctly. Therefore, we do not include corrections to the wire positions based on BPMs. The reconstructed beam phase space represents the average distribution for many shots including orbit fluctuations. After the calibration of the BPMs \in Athos we plan to characterize the effect of orbit jitter to wire scan measurements \in detail.$$</t>
-  </si>
-  <si>
-    <t>$$$1 0 0 \mu \mathrm { m } / 1 0 0 \mu \mathrm { m } / 2 0 0 \mu \mathrm { m }$ , roll angle misalignments should be better than $2 0 0 \mu \mathrm { r a d }$ . INSTABILITY ANALYSIS Instabilities induced by beam collective effects are dominant limitation of average current \in storage rings, especially for the case of low energy like LUTF ${ 5 0 0 } \mathrm { M e V }$ ring. For a purpose of potential higher current, the vacuum pipe is designed to octagon with copper (the left of Fig. 5). The flanges, bellows, valves are all shielded type. And all transitions are also required to have a taper smaller than 0.2 for small geometrical impedance. In the current design, the preliminary obtained total longitudinal geometrical impedance is given \in the right of Fig. 5. The effective impedance $\left| { \\frac { Z } { n } } \right| _{\mathrm { e f f } } = 0 . 2 8 \Omega$ . For the total resistive wall (RW) impedance, two kinds of pipes are assumed: two elliptical pipes, representing two IDs and each with a (semi-major axis, semi-minor axis, length) of (30, 5.5, 6000) mm and the other octagonal parts. Based on impedance, the threshold current of various instabilities can be estimated. Here, we start from CSR instability first.$$</t>
-  </si>
-  <si>
-    <t>$$ The critical angle is defined as $$ \\vartheta _{c } = \\frac { 1 } { \\gamma } \left(\\frac { \omega _{c } } { \omega } \right) ^{1 / 3 } . $$ Higher frequencies have a smaller critical angle. For frequencies much larger than the critical frequency, and for angles much larger than the critical angle, the synchrotron radiation emission is negligible. The total spectrum, integrated over all emission angles, is given by $$ \\frac { d I } { d \omega } = \int \int _{4 \pi } \\frac { d ^{3 } I } { d \omega d \Omega } d \Omega = \\frac { \sqrt { 3 } e ^{2 } } { 4 \pi \varepsilon _{0 } c } \\gamma \\frac { \omega } { \omega _{c } } \int _{\omega / \omega _ { c } } ^{\infty } K _{5 / 3 } ( x ) d x . $$ It is shown \in Fig. I.10.4. Unlike cyclotron radiation, emitted by non-relativistic electrons, synchrotron radiation has a broadband spectrum, shifted towards higher photon energies with the cube of the Lorentz factor $\\gamma$ . In the Swiss Light Source, the Lorentz factor $\\gamma$ is approximately 5000. As a result, the critical frequency of the radiation emitted by the dipole magnets is \in the exahertz range, corresponding to the $\mathrm { \\Delta X }$ -ray spectrum. The overall spectrum of synchrotron radiation covers infrared, visible, UV and X-ray wavelengths. While coherent beams \in or near the visible spectrum can be conveniently generated by lasers, synchrotrons are widely used \in research that requires X-ray photons. We will look at some typical</t>
-  </si>
-  <si>
-    <t>$$ where we have used the Twiss parameter identity $\alpha _{y } ^{2 } = \beta _{y } \\gamma _{y }$ . The change \in emittance is thus proportional to the emittance, with a proportionality factor $- d p / P _{0 }$ . We thus have an exponentially decreasing emittance (the factor 2 is by convention) $$ \varepsilon _{y } ( t ) = \varepsilon _{y } ( 0 ) \cdot \exp \left(- 2 \\frac { t } { \tau _{y } } \right) . $$ This result underscores the value of the chosen variable transformation. By using action and angle variables, we can get an understanding of a key characteristic of the electron bunch: its emittance. This variable transformation is not just a mathematical maneuver; it serves as a powerful tool, offering clarity and depth to our exploration. Note that we assume the momentum of the photon to be much smaller than the reference momentum. As a result, we see a slow (i.e. an adiabatic) damping of the emittance. To proceed our determination of the vertical damping time, i.e. the decay constant of the emittance, we need to quantify the energy lost by a particle due to synchrotron radiation for each turn \in the storage</t>
-  </si>
-  <si>
-    <t>$$How is the situation different when one decreases the gap to keep the photon energy constant? Describe qualitatively the effects on the undulator parameter $K$ and the brilliance $\boldsymbol { B }$ ! I.10.7.13 Muons Muons are considered as an alternative to electrons for a future circular lepton collider. Argue ‚Äì Why they might be preferable to electrons? ‚Äì What could be possible disadvantages? I.10.7.14 Electrons vs. muons Consider an electron storage ring at an energy of $8 0 0 \mathrm { M e V } .$ , a circulating current of $1 \mathrm { { A } }$ , and a bending radius of $\rho = 1 . 7 8 4 \mathrm { ~ m ~ }$ . Calculate the energy loss of each electron per turn, and the total synchrotron radiation power from all bending magnets. What would the radiation power be if the particles were 800 MeV muons? I.10.7.15 Swiss Light Source 2.0 Calculate how much energy is stored \in the electron beam \in the SLS-2.0 storage ring, with a circumference of $2 9 0 . 4 \mathrm { m }$ and an average current of $4 0 0 \mathrm { m A }$ . The particle energy is $2 . 4 { \mathrm { G e V } } .$ Assume the RF trips off. Knowing that the momentum acceptance is $\pm 5 \%$ , compute how long the beams survives \in the ring before hitting the wall.$$</t>
-  </si>
-  <si>
-    <t>$$The proposed layout of the facility is presented \in Fig. 2. Two ion sources deliver beams of protons or fully stripped helium ions, while provision is made for a third ion source delivering fully stripped carbon ions. The beams are then accelerated \in a linac designed for particles with charge to mass ratio $1 / 2$ , up to an energy of $7 ~ \mathrm { M e V / u }$ . The linac is designed for $10 \%$ duty cycle, much higher than what required for injection into the synchrotron, to allow production of radioisotopes for therapy and imaging (and for the combination of two, theragnostics) using the beam pulses that are not injected into the synchrotron. A straight beam line at linac exit brings the beams to the radioisotope production target and room. Protons and helium beams can be injected and accelerated \in the synchrotron. Helium beams accelerated up to $2 2 0 \ \mathrm { M e V / u }$ can be sent to a research beamline, or to two treatment rooms, one equipped with a fixed beam line and the other with a gantry. Protons can also be used for research and for treatment. In addition, the higher proton energy achievable thanks to the synchrotron magnetic rigidity of $4 . 5 \mathrm { T m }$ makes full body scans for online proton radiography possible using low intensity proton beams. It is foreseen that the facility will use the new superconducting ion gantry being developed by a wide European collaboration [9]. Additional experimental programmes with carbon ions will be also possible, by retuning the helium ion source or, preferably, by adding a third source dedicated to production of heavier ions at lower intensity.$$</t>
-  </si>
-  <si>
-    <t>$$RAPID CYCLING SYNCHROTRON Bunches circulating \in the ESR are replaced on a regular basis \in order to maintain high average polarization levels, using a rapid cycling synchrotron (RCS). The RCS needs to ramp over a wide energy range, from $4 0 0 \mathrm { M e V }$ at injection to up to $1 8 \mathrm { G e V }$ at extraction into the ESR. This raises concerns about the magnetic field quality at injection energy, when due to the low field values errors from remanent field e!ects can be particularly large. To raise the dipole field at injection to levels demonstrated at other facilities, each dipole is therefore split into three segments of equal length, and only the center dipole is powered to $1 9 0 \mathrm { G }$ at injection while the two outer ones are at zero field after some de-gaussing process. Studies on the magnetic field tolerances are underway [27]. Bunches are supplied to the RCS from a $4 0 0 \mathrm { M e V }$ S-band LINAC, operating at a repetition rate of $1 0 0 \mathrm { H z }$ . Four $7 \mathrm { n C }$ LINAC bunches supplied by the gun [28, 29] are injected into the RCS and merged there into a single bunch at around 1 GeV [30].$$</t>
-  </si>
-  <si>
-    <t>$$File Name:Ischebeck_-_2024_-_I.10_‚Äî_Synchrotron_radiation.pdf Chapter I.10 Synchrotron radiation Rasmus Ischebeck Paul Scherrer Institut, Villigen, Switzerland Electrons circulating \in a storage ring emit synchrotron radiation. The spectrum of this powerful radiation spans from the far infrared to the $\boldsymbol { \mathrm { \Sigma } } _{\mathrm { X } }$ -rays. Synchrotron radiation has evolved from being a mere byproduct of particle acceleration to a powerful tool leveraged \in diverse scientific and engineering fields. Indeed, synchrotrons are the most brilliant X-ray sources on Earth, and they find use \in a wide range of fields \in research. In this chapter, we will look at the generation of radiation of charged particles \in an accelerator, at the influence of this on the beam dynamics, and on the physics behind applications of synchrotron radiation for research. I.10.1 Introduction It is difficult to overstate the importance of X-rays for medicine, research and industry. Already a few years after their discovery by Wilhelm Conrad R√∂ntgen, their ability to penetrate matter established Xrays as an important diagnostics tool \in medicine. Experiments with $\mathrm { \\Delta X }$ -rays have come a long way since the inception of the first $\mathrm { \\Delta } X$ -ray tubes. The short wavelength of $\mathrm { \\Delta X }$ -rays allowed Rosalynd Franklin and Raymond Gosling to take diffraction images that would lead to the discovery of the structure of DNA. Today, X-ray diffraction is an indispensable tool \in structural biology and \in pharmaceutical research. Industrial applications of X-rays range from cargo inspection to sterilization and crack detection.$$</t>
-  </si>
-  <si>
-    <t>$$ where $P _{0 }$ is the momentum of the reference particle. Since $\vec { p }$ and $d \vec { p }$ are collinear, the same relation can be written for the $y$ component of $\vec { p }$ , $p _{y }$ $$ p _{y } ^{\prime } \approx p _{y } \left(1 - \\frac { d p } { P _{0 } } \right) . $$ In order to analyze the effect on the beam, it becomes appropriate to transition to a more beneficial set of coordinates. Specifically, we will use the action and angle variables $J _{y }$ and $\varphi _{y }$ . It is essential to underscore that these coordinates are not arbitrary choices; they too are canonical variables. Their significance lies \in their ability to offer a more structured view into the dynamics of the entire beam. The action $J _{y }$ is, by its definition $$ J _{y } = \\frac { 1 } { 2 } \\gamma _{y } y ^{2 } + \alpha _{y } y p _{y } + \\frac { 1 } { 2 } \beta _{y } p _{y } ^{2 } .</t>
-  </si>
-  <si>
-    <t>$$ After the emission of a photon, the action of our single electron is $$ \begin{array} { r c l } { { J _{y } ^{\prime } } } &amp; { { = } } &amp; { { \displaystyle \\frac { 1 } { 2 } \\gamma _{y } y ^{2 } + \alpha _{y } y p _{y } \left(1 - \\frac { d p } { P _{0 } } \right) + \\frac { 1 } { 2 } \beta _{y } p _{y } ^{2 } \left(1 - \\frac { d p } { P _{0 } } \right) ^{2 } } } \\ { { } } &amp; { { } } &amp; { { } } \\ { { } } &amp; { { = } } &amp; { { \displaystyle \\frac { 1 } { 2 } \\gamma _{y } y ^{2 } + \alpha _{y } y p _{y } - \alpha _{y } y p _{y } \\frac { d p } { P _{0 } } + \\frac { 1 } { 2 } \beta _{y } p _{y } ^{2 } - 2 \cdot \\frac { 1 } { 2 } \beta _{y } p _{y } ^{2 } \\frac { d p } { P _{0 } } + \\frac { 1 } { 2 } \beta p _{y } ^{2 } \left(\\frac { d p } { P _{0 } } \right) ^{2 } . } } \end{array}</t>
-  </si>
-  <si>
-    <t>$$ The change \in action is thus $$ \begin{array} { l l l } { { d J _{y } } } &amp; { { = } } &amp; { { J _{y } ^{\prime } - J _{y } } } \\ { { } } &amp; { { } } &amp; { { } } \\ { { } } &amp; { { \approx } } &amp; { { \displaystyle - \alpha _{y } y p _{y } \\frac { d p } { P _{0 } } - \beta _{y } p _{y } ^{2 } \\frac { d p } { P _{0 } } } } \\ { { } } &amp; { { } } &amp; { { } } \\ { { } } &amp; { { = } } &amp; { { \displaystyle - \left(\alpha _{y } y p _{y } + \beta _{y } p _{y } ^{2 } \right) \\frac { d p } { P _{0 } } . } } \end{array}</t>
-  </si>
-  <si>
-    <t>$$ The above three formulas assume that the initial vertical emittance is zero and that the invariant emittance is Œµ0. The last term adds a small contribution to the line width from the finite damping time of the transverse single particle motion. This is shown \in Fig. 4 where the results of mapping simulations are presented \in comparison with the above approximate formulas which do not take into account the coupling with the longitudinal plane. Note, that moment mapping is based on equilibrium and cannot describe the correct development of the emittances over time. Usually, this is not a serious problem since skew gradient or other coupling errors \in a storage ring are static and we observe only the equilibrium situation anyway. SUMMARY The simplified treatment of radiation can be used to find an analytical formula for the emittance close to the linear difference coupling resonance \in a region where coupling competes with damping and diffusion and the Hamiltonian approach is not applicable. REFERENCES [1] G. Guignard, ‚ÄúBetatron coupling and related impact of radiation‚Äù, Phys. Rev. E, vol. 51, p. 6104, 1995. [2] K. Hirata, F. Ruggiero, ‚ÄúTreatment of Radiation for Multiparticle Tracking \in Electron   Storage Rings‚Äù, Part. Acc., vol. 28, pp. 137-142, 1990.</t>
-  </si>
-  <si>
-    <t>$$ If the phase of the radiation wave advances by $\pi$ between $A$ and $B$ , the electromagnetic field of the radiation adds coherently3. The light moves on a straight line $\overline { { A B } }$ that is slightly shorter than the sinusoidal electron trajectory $\widetilde { A B }$ $$ { \\frac { \\lambda } { 2 c } } = { \\frac { \widetilde { A B } } { v } } - { \\frac { \overline { { A B } } } { c } } . $$ The electron travels on a sinusoidal arc of length $\widetilde { A B }$ that can be calculated as $$ \begin{array} { r l } { \overrightarrow { A B } } &amp; { = \displaystyle \int _{0 } ^{\infty } \sqrt { 1 + \left(\\frac { \mathrm { d } x } { \mathrm { d } \xi } \right) ^{2 } } \mathrm { d } z } \\ &amp; { \approx \displaystyle \int _{0 } ^{\infty } \left(1 + \\frac { 1 } { 2 } \left( \\frac { \mathrm { d } x } { \mathrm { d } \xi } \right) ^{2 } \right) \mathrm { d } z } \\ &amp; { = \displaystyle \int _{0 } ^{\infty } \left(1 - \\frac { K ^{2 } } { 2 \sqrt { 3 \xi _{0 } ^{2 } \\gamma ^{2 } } } \mathrm { e } ^{\mathrm { i } \xi } \mathrm { d } \xi \right) \mathrm { d } z } \\ &amp; { = \displaystyle \int _{0 } ^{\infty } \left(1 - \\frac { K ^{2 } } { 2 \sqrt { 3 \xi _{0 } ^{2 } \\gamma ^{2 } } } \mathrm { e } ^{\mathrm { i } \xi } \mathrm { d } \xi \right) \mathrm { d } z } \\ &amp; { = \displaystyle \\frac { \\lambda _{0 } } { 2 } \left(1 + \\frac { K ^{2 } } { 4 ( 3 \xi _{0 } ^{2 } \\gamma ^{2 } ) } \right) } \\ &amp; { \approx \displaystyle \\frac { \\lambda _{0 } } { 2 } \left(1 + \\frac { K ^{2 } } { 4 \\gamma ^{2 } } \right) . } \end{array}</t>
-  </si>
-  <si>
-    <t>$$ where $J$ is the Bessel function of the first kind. As $K$ increases, the higher harmonics play a more signicificant role, but the fundamental harmonic always has the highest flux. I.10.3 Effects of the emission of radiation on beam dynamics In this section, we will delve deeper into the interplay between the radiation emission and the ensuing dynamics of the beam. The treatment closely follows the book by Wolski [4]. First, we will explore the energy transfer that occurs when an electron emits a photon. Following this, we will make a coordinate transformation to the more beneficial action and angle variables, providing a clearer perspective on the underlying mechanisms. We will then proceed to compute the ensemble average to calculate the implications on the emittance of the beam. A noteworthy observation will emerge from our analysis: the emittance decreases exponentially, plateauing at a limit dictated by the fundamental principles of quantum mechanics. This revelation underscores the intricate ties between quantum mechanics and relativistic beam dynamics, shedding light on the broader consequences of radiation emission \in storage rings. In the following sections, we will make use of Hamiltonian mechanics. Those not familiar with this matter are invited to watch two introductory videos: "Hamiltonian formalism $1 ^{\dag 6 }$ and "Hamiltonian formalism 2"7.</t>
-  </si>
-  <si>
-    <t>$$ All synchrotron radiation integrals are a function of the lattice, independent of the properties of the stored beam. Again, Equation I.10.32 would predict an emittance that decays exponentially, approaching zero. The reason that this does not happen \in reality is that there are effects that increase the horizontal emittance and thus result \in a non-zero equilibrium emittance. We will soon look at these effects, but not before examining the longitudinal phase space. I.10.3.3 Longitudinal damping We will now look at the effect of synchrotron radiation on the longitudinal phase space $( z , \delta )$ . Electrons that have a larger energy than the reference particle radiate more, while those that have smaller energy radiate less. This leads to a damping of the oscillations \in the longitudinal phase space (the so-called synchrotron oscillations), and the longitudinal emittance, i.e. the phase space volume of the beam, decays exponentially. This phase space is again coupled to the horizontal phase space, for the reasons mentioned above. Finding the damping time, one follows a derivation similar as \in the vertical phase space: ‚Äì Write down the equations of motion of a single electron \in the longitudinal phase space, including losses through synchrotron radiation;</t>
-  </si>
-  <si>
-    <t>$$I.10.2 Generation of radiation by charged particles An accelerated charge emits electromagnetic radiation. An oscillating charge emits radiation at the oscillation frequency, and a charged particle moving on a circular orbit radiates at the revolution frequency. As soon as the particles approach the speed of light, however, this radiation is shifted towards higher frequencies, and it is concentrated \in a forward cone, as shown \in Fig. I.10.3. I.10.2.1 Non-relativistic particles moving \in a dipole field Let us first look at non-relativistic particles. In a constant magnetic field with magnitude $B$ , a particle with charge $e$ and momentum $p = m v$ will move on a circular orbit with radius $\rho$ $$ \rho = \\frac { p } { e B } . $$ This is an accelerated motion, and the particle emits radiation. For non-relativistic particles, this radiation is called cyclotron radiation, and the total emitted power is $$ P = \sigma _{t } \\frac { B ^{2 } v ^{2 } } { \mu _{0 } c } , $$ where $\sigma _{t }$ is the Thomson cross section $$ \sigma _{t } = \\frac { 8 \pi } { 3 } \left(\\frac { e ^{2 } } { 4 \pi \varepsilon _{0 } m c ^{2 } } \right) ^{2 } .$$</t>
-  </si>
-  <si>
-    <t>$$ which is Bragg‚Äôs law. Note that contrary to the diffraction on a two-dimensional surface, which is often considered fir visible light, $\mathrm { \\Delta } \mathrm { X }$ -rays diffract on a three-dimensional crystal lattice. In this case, not only the exit angle matters, but also the incoming angle must fulfill the resonance condition! X-ray diffraction is one of the key techniques to resolve molecular structure \in samples that can be crystallized. In the following section, we will look at different applications of synchrotron radiation \in science, medicine and industry. I.10.6 Applications of synchrotron radiation Synchrotron radiation is used \in a wide range of scientific and industrial applications, and over 60 synchrotron radiation sources are operating around the world. New facilities are under construction, reflecting the growing demand \in research and industrial applications. I.10.6.1 Diffraction Coherent diffraction on crystals has been used before the emergence of synchrotrons, at the time enabled by X-ray tubes. The renowned Photo 51, recorded by Rosalind Franklin and her student Raymond Gosling, found its way (through dubious ways) into the hands of James Watson and Francis Crick, who used it to decipher the double helix structure of DNA (see Fig. I.10.12). Why do scientists use diffraction \in place of imaging to determine the structure of molecules? Would it not be easier to simply magnify the X-ray image onto a detector, as we do \in transmission electron microscopes?</t>
-  </si>
-  <si>
-    <t>$$ and the equilibrium value, also called the natural horizontal emittance is $$ \varepsilon _{x } ( \infty ) = C _{q } \\gamma ^{2 } \\frac { I _{5 } } { j _{x } I _{2 } } , $$ where the fifth synchrotron radiation integral $I _{5 }$ is defined \in Equation I.10.35, and the electron quantum constant $C _{q }$ is $$ C _{q } = \\frac { 5 5 } { 3 2 \sqrt { 3 } } \\frac { \hbar } { m _{e } c } \approx 3 . 8 3 2 \cdot 1 0 ^{- 1 3 } \mathrm { m } . $$ (The factor $\\frac { 5 5 } { 3 2 { \sqrt { 3 } } }$ comes from the calculation of the emission spectrum of synchrotron radiation, integrating over all photon energies and angles). A similar effect occurs \in the longitudinal phase space. An electron emitting an X-ray photon loses a small, but significant fraction of its energy. This induces an energy spread among the electrons \in the bunches. This energy spread, \in tandem with the action of dispersion \in the accelerator, results \in an increase \in the longitudinal phase space distribution, thereby increasing the longitudinal emittance of the beam. Quantum excitation thus acts as a natural counterpart to radiation damping.</t>
-  </si>
-  <si>
-    <t>$$ Computing the photon flux $\dot { N } _{\\gamma }$ for an undulator is even more elaborate than the calculation for a single dipole, and we just cite the result [2] $$ { \dot { N } } _{\\gamma } = 1 . 4 3 \cdot 1 0 ^{1 4 } N I _{b } Q _{n } ( K ) , $$ where $$ Q _{n } ( K ) = \\frac { 1 + K ^{2 } / 2 } { n } F _{n } ( K ) . $$ We denote the harmonic number by $n = 2 m - 1$ with $m \\in \\mathbb { N }$ , the number of periods \in the undulator by $N$ , the beam current \in A by $I _{b }$ , the undulator parameter by $K$ , and $F _{n } ( K )$ is given by $$ \begin{array} { r c l } { { F _{n } ( K ) } } &amp; { { = } } &amp; { { \displaystyle \\frac { n ^{2 } K ^{2 } } { ( 1 + K ^{2 } / 2 ) ^{2 } } \left(J _{( n + 1 ) / 2 } ( Y ) - J _{( n - 1 ) / 2 } ( Y ) \right) ^{2 } } } \\ { { } } &amp; { { } } &amp; { { } } \\ { { Y } } &amp; { { = } } &amp; { { \displaystyle \\frac { n K ^{2 } } { 4 ( 1 + K ^{2 } / 2 ) } , } } \end{array}</t>
-  </si>
-  <si>
-    <t>$$ When deriving the equations for the beam dynamics \in the horizontal phase space, we need to consider: ‚Äì Change \in momentum: the emission of radiation leads to a recoil of the electron. This change \in momentum is the same that we considered \in the vertical phase space; ‚Äì Dispersion: the emission of radiation results \in a change \in the energy deviation, denoted as $\delta$ . This deviation brings about subsequent changes \in the horizontal coordinate $x$ and its associated momentum $p _{x }$ . When we explored the beam dynamics \in the vertical phase space, we ignored the second factor, as we assumed that the vertical dispersion is zero. This assumption streamlined the analysis, but it can certainly not be made \in the horizontal dimension. While the details of the interplay between the emission of synchrotron radiation and the damping of the emittance are unique to each plane, the outcomes are similar. The horizontal emittance decays exponentially $$ \\frac { d \varepsilon _{x } } { d t } = - \\frac { 2 } { \tau _{x } } \varepsilon _{x } $$ $$ \Rightarrow \varepsilon _{x } ( t ) = \varepsilon _{x } ( 0 ) \exp \left(- 2 \\frac { t } { \tau _{x } } \right)</t>
-  </si>
-  <si>
-    <t>$$A. Resolution limit The ultimate resolution limit of the presented tomographic characterization of the transverse beam profile depends on the roughness of the wire profile. With the current fabrication process, this is on the order of $1 0 0 ~ \mathrm { { n m } }$ estimated from electron microscope images of the freestanding gold wires. This is one to two orders of magnitude below the resolution of standard profile monitors for ultrarelativistic electron beams (YAG:Ce screens) [5,6]. B. Comparison to other profile monitors The scintillating screens (YAG:Ce) at SwissFEL achieve an optical resolution of $8 \ \mu \mathrm { m }$ , and the smallest measured beam sizes are $1 5 \ \mu \mathrm { m }$ [6]. At the Pegasus Laboratory at UCLA beam sizes down to $5 \mu \mathrm { m }$ were measured with a $2 0 \ \mu \mathrm { m }$ thick YAG:Ce screen \in combination with an invacuum microscope objective [5]. Optical transition radiation (OTR) based profile monitors are only limited by the optics and camera resolution [23]. At the Accelerator Test Facility 2 at KEK this technique was used to measure a beam size of $7 5 0 ~ \mathrm { n m }$ [7]. However, OTR profile monitors are not suitable for compressed electron bunches (e.g., at FELs) due to the emission of coherent OTR [24].$$</t>
-  </si>
-  <si>
-    <t>$$In the last step of each iteration, a small random value is added to each coordinate according to the Gaussian kernel defined \in Eq. (2). This smoothes the distribution on the scale of $\rho$ . For the reconstruction of the measurement presented \in Sec. IV, $\rho _{x , y }$ was set to $8 0 \ \mathrm { n m }$ . The iterative algorithm is terminated by a criterion based on the relative change of the average of the difference $\\Delta _{z , \\theta } ^{i }$ (further details \in Appendix B). The measurement range along $z$ ideally covers the waist and the spacing between measurements is reduced close to the waist, since the phase advance is the largest here. Since the algorithm does not where $P _{z , \\theta } ^{m }$ and $P _{z , \\theta } ^{r }$ are the measured and reconstructed projections for the current iteration at position $z$ and angle $\\theta$ . The difference between both profiles quantifies over- and underdense regions \in the projection. Then, $\\Delta _{z , \\theta } ( \xi )$ is interpolated back to the particle coordinates along the wire scan direction, yielding $\\Delta _{z , \\theta } ^{i }$ for the ith particle. Afterwards, we calculate the average over all measured $z$ and $\\theta$ :$$</t>
-  </si>
-  <si>
-    <t>$$An example of the laser pulse waveforms from the amplifier is shown \in Fig. 3. The top plot shows the $6 0 \mathrm { - H z }$ macropulses. Each macropulse contains ${ \sim } 2 0$ sub-pulses with flexible repetition rates and pulse durations. Finally, each sub-pulse contains multiple micro-pulses whose repetition frequency and pulse width are determined by the seed laser. By optimizing the beam size and time delays between pumping and laser pulses, even a two-stage amplifier scheme can amplify the pulse energy from a subnanojoule level to a few millijoules. The beam quality was measured to be $\mathbf { M } ^{2 } \sim 1 . 1 5$ . It worths noting that the above multi-layer temporal structure, also known as a laser comb, has been used to simultaneously measure profile or emittances of an operational beam at different portions of a macropulse or within a turn from a single scan [2]. There are 10 laser-based $\mathrm { H } ^{- }$ beam diagnostic stations installed along the SNS linac. The laser beam is sent to the measurement locations through a free-space transport line. At each measurement station, a motorized pick-up mirror is used to redirect the laser beam to the measurement chamber. The furthest measurement station is about 250 meters away from the laser lab. To deliver the laser beam to all individual measurement stations with proper beam size, we introduced image relay lens pairs or telescopes \in the transport line. Figure 4 shows the locations of the measurement stations and telescopes installed \in the transport line. Three telescopes, each consisting of a pair of lenses with adjustable spacing, are installed \in the laser lab and two locations (95 and 185 meters away from the laser, respectively) \in the transport line. The image relay optics delivers laser beam with proper beam sizes at individual measurement stations. The laser beam spot on the view screen is monitored by a digital camera. The beam position is stabilized by an active feedback that steers the mirror based on the position of the laser beam monitored along the transport line.$$</t>
-  </si>
-  <si>
-    <t>$$Two important aspects: ‚Äì The photon energy is proportional to the square of the energy of the electrons; ‚Äì The photon energy decreases with higher magnetic field.4 We are looking at spontaneous radiation, thus the total energy loss of the electrons is proportional to the distance travelled. Consequently, the total intensity of the radiation grows proportionally to the distance travelled. The width of the radiation cone for the fundamental wavelength decreases inversely proportional to the distance, therefore the central intensity grows as the square of the undulator length. The radiation is linearly polarized \in $x$ direction. Undulators thus make use of the coherent enhancement of the radiation of each electron individually, which leads to a substantial increase \in brillance (Equation I.10.1). This coherence occurs at specific wavelengths, which can be tuned by adjusting the strength of the magnetic field5, and occurs \in a very narrow angle around the forward direction. Free electron lasers achieve an additional coherent enhancement from multiple electrons \in each microbunch, which results \in another supercalifragilisticexpialidocious enhancement \in the peak brilliance. To compute the brillance of the radiation from an undulator, one first has to determine the flux $\dot { N } _{\\gamma }$ and the effective source size $\boldsymbol { \sigma } _{( x , y ) \mathrm { e f f } }$ and divergence $\sigma _{( x ^{\prime } , y ^{\prime } ) , \mathrm { e f f } }$ . These are given by the electron beam size $\sigma _{( x , y ) }$ and divergence $\sigma _{( x ^{\prime } , y ^{\prime } ) }$ , and the diffraction limit for the radiation. Electron beam size and divergence can be calculated from the Twiss parameters $\beta$ and $\\gamma$ , and the emittance $\varepsilon$ of the beam. The diffraction limits for the radiation $\sigma _{r }$ and $\sigma _{r ^{\prime } }$ can be calculated, considering the length of the source (which is equal to the undulator length) $L$$$</t>
-  </si>
-  <si>
-    <t>$$‚Äì Fourtihogneneexrtartaiocnti:oFnr.oAmccthoerd2i0n1g0lsyonewiatrhdes.r tAhlseoskonuorwcne assizdeiffnraocrtitohneliamnitgeudlsatrorage rings (DLSsRpsr),etahde sewfearciel itoiepstifematiuzreds iagsn ifaicra natsl ytrhed urcaedihaotiriozno nitsa lceomnicttearnnce,di.ncreasing the coherent flux siVgenirfyi casnotloy.n Wdeewdillclaotoekd atftahceislietinesd, etawilhinerSe ctihoen  I.u1n0i.4q.uEe xapmuprlepsoisnec luodfe MA iXnItVh \in Lutnhd,e Sewledcetnr,oan datcheceulpecroamtionr g SwLaSs 2t.0o inseVrilvlie geans,  Sa wiltizgehrlta nsdo. Synchrotronesleacretrtohne dset-ofraactgoestraindgasr,dwfohrerreseetarhceh eulseincgtrconhserecinrtcXu-lratyebaetamas. Tnhsetyanarte operated by nationaleonreErguryo paenadn trhese raracdh alatbiorna tlorises s,is wrheoplmeankieshthed mbay vaRiFl apbloewtoera. cBadEeSmSiYc  I aind indusftrioalm researchers.BeSrylnicnh, roGtreornms arney naonwds utphpel eNmaetnitoednabl ySfryenecehlercotrtornonl asLeirgsh(t FSEoLus)r,cwe h(icNhSLmSa)ke usetorfoan linear acceler ator to generate u ltrabr ight  electron  be ams that radi ate c oherent ly \in lo ng  undulators. FaEnLds are treated \in Chapte r II I.7. The key properties of synchrotron radiation are: ‚Äì Broad spectrum available, ‚Äì High flux, ‚Äì High spectral brightness, ‚Äì High degree of transverse coherence, ‚Äì Polarization can be controlled, ‚Äì Pulsed time structure, ‚Äì Stability, ‚Äì Power can be computed from first principles. We will now navigate through the electromagnetic theory to understand how synchrotron radiation is generated when relativistic electrons are subjected to magnetic fields, noting \in particular undulators, insertion devices present \in every synchrotron radiation source. We will then look at the effect of the emission of synchrotron radiation on the particle bunches \in a storage ring, and come to the surprising conclusion that this actually improves the emittance of the beam. We will then explore recent technological advancements \in accelerator physics, which allow improving the transverse coherence of the $\mathrm { \\Delta } X$ -ray beams significantly. Finally, we will look at the interaction of $\mathrm { \\Delta } X$ -rays with matter, and give an overview of scientific uses of synchrotron radiation.$$</t>
-  </si>
-  <si>
-    <t>$$ and $$ \vec { A } ( \vec { x } , t ) = \\frac { 1 } { 4 \pi \varepsilon _{0 } C ^{2 } } \int d ^{3 } \vec { x } ^{\prime } \int d t ^{\prime } \\frac { \vec { j } ( \vec { x } ^{\prime } , t ) } { | \vec { x } - \vec { x } ^{\prime } | } \delta \left(t ^{\prime } + \\frac { \vec { x } - \vec { x } ^{\prime } } { c } - t \right) . $$ Solving the wave equation \in this most general sense is quite elaborate. The derivation can be found \in Jackson [1], Chapter 6. Here, we just cite the result: the intensity of the radiation per solid angle $d \Omega$ and per frequency interval $d \omega$ is given by $$ \\frac { d ^{3 } I } { d \Omega d \omega } = \\frac { e ^{2 } } { 1 6 \pi ^{3 } \varepsilon _{0 } c } \left(\\frac { 2 \omega \rho } { 3 c \\gamma ^{2 } } \right) ^{2 } \left(1 + \\gamma ^{2 } \\vartheta ^{2 } \right) ^{2 } \left[ K _{2 / 3 } ^{2 } ( \xi ) + \\frac { \\gamma ^{2 } \\vartheta ^{2 } } { 1 + \\gamma ^{2 } \\vartheta ^{2 } } K _{1 / 3 } ^{2 } ( \xi ) \right] ,</t>
-  </si>
-  <si>
-    <t>$$ring. We start with the radiation power $$ P _{\\gamma } = \\frac { C _{\\gamma } } { 2 \pi } c \\frac { E ^{4 } } { \rho ^{2 } } . $$ As the energy spread and the change \in energy around one turn will be small, we can replace the particle energy $E$ by the nominal energy $E _{\mathrm { n o m } }$ . The emission of synchrotron radiation leads to a decrease \in the energy of the particles within a storage ring. In order to maintain these particles within the beam pipe, it is imperative to counterbalance this energy loss. This compensation is achieved using radio frequency (RF) cavities. These cavities are specifically designed to accelerate particles \in the forward direction, ensuring their continued trajectory within the ring. The $y$ component of the momentum is thus unchanged. In Fig. I.10.6, the momentum of a particle, after undergoing energy diminution due to radiation emission and subsequent re-acceleration by the RF cavities, is denoted as $p ^{\prime \prime }$ . Let us get back to the change of emittance \in one turn$$</t>
-  </si>
-  <si>
-    <t>$$The new circumference of the proton and heavy ion synchrotron is $3 9 . 9 6 \mathrm { m }$ , and the maximum magnetic rigidity of the dipole magnets is $2 . 3 2 \ \mathrm { T m }$ . It can complete the injection, capture, acceleration and extraction process of the required ${ \mathrm { B i } ^{3 2 + } }$ , $\mathrm { K r ^{1 8 + } }$ , $\mathrm { H e ^{1 + } }$ , $\mathbf { A r } ^{1 1 \dagger }$ , $\mathrm { S i ^{8 + } }$ , $C ^{4 + }$ and $\mathrm { H } ^{+ }$ \in the synchrotron. Finally, the energy of each particle reaches the demand of the application. The main parameters of particles are shown \in Table 1. Table: Caption: Table 1: Main Parameters Of Particles  Body: &lt;html&gt;&lt;body&gt;&lt;table&gt;&lt;tr&gt;&lt;td&gt;Ion type&lt;/td&gt;&lt;td&gt;Charge-mass ratio&lt;/td&gt;&lt;td colspan="2"&gt;Enery&lt;/td&gt;&lt;td colspan="2"&gt;Rqvolution fre-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td rowspan="3"&gt;Min.&lt;/td&gt;&lt;td&gt;Max.&lt;/td&gt;&lt;td&gt;Min.&lt;/td&gt;&lt;td&gt;Max.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Bi32+&lt;/td&gt;&lt;td&gt;0.16&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;0.49&lt;/td&gt;&lt;td&gt;0.85&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Kr18+&lt;/td&gt;&lt;td&gt;0.21&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;0.49&lt;/td&gt;&lt;td&gt;0.85&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Hel+&lt;/td&gt;&lt;td&gt;0.28&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;44&lt;/td&gt;&lt;td&gt;049&lt;/td&gt;&lt;td&gt;069&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Arl1+&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Si8+ C4+&lt;/td&gt;&lt;td&gt;0.29&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;0.49&lt;/td&gt;&lt;td&gt;0.91&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.33&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;200&lt;/td&gt;&lt;td&gt;0.49&lt;/td&gt;&lt;td&gt;1.03 4.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;H+&lt;/td&gt;&lt;td&gt;1.00&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.91&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;&lt;/html&gt; RESEARCH ON LONGITUDINALDYNAMICS In the operation of synchrotron, the frequency of RF system is h times the revolution frequency (h is a positive integer, called harmonic number). Considering the low frequency corresponding to the injection energy of heavy ions, which is not within the working bandwidth range of the RF system, the harmonic wave of $\scriptstyle \mathtt { h } = 2$ can be used to capture the heavy ion beam for acceleration, and the harmonic wave of $\scriptstyle \mathrm { h = 1 }$ to capture the proton for acceleration. According to the height formula and the area formula of the bucket (the area where particles can exist stably \in longitudinal motion), the harmonic wave of $\scriptstyle \mathrm { h = } 2$ has a lower height and smaller area than the bucket of the wave of $\scriptstyle \mathrm { h = 1 }$ under the same voltage amplitude.$$</t>
-  </si>
-  <si>
-    <t>$$INTRODUCTION Research \in fundamental physics and applied science using muons has gained substantial interests \in recent years. A long-standing discrepancy between theoretical predictions [1] and experimental measurements [2, 3] regarding the muon‚Äôs magnetic moment strongly suggests the presence of physics beyond the Standard Model of particle physics (for a recent review, see [4]). Techniques involving muon spectroscopy, such as muon spin rotation and muon-induced X-ray emission [5], have catalyzed advancements \in superconductivity, magnetism, and the elemental analysis of archaeological artifacts. A common feature of existing and planned facilities is their reliance on high-power proton accelerators. Most of them operate \in a multipurpose mode, where experiments with muons, neutrons, and pions are conducted simultaneously. These facilities currently operate either \in a pulsed mode $( 2 5 - 5 0 \mathrm { H z }$ , e.g., J-PARC \in Japan [6], and ISIS \in the UK [7]) or a continuous (DC) mode (e.g., PSI \in Switzerland [8], TRIUMF \in Canada [9]). This is also true for the five new muon facilities currently under study at CSNS [10], HIAF/CiADS [11], RAON [12], and FNAL [13]. Given that a typical muon experiment spans roughly ten muon lifetimes, current operating modes result \in low-duty cycles for various muon experiments. For instance, precision muon physics with continuous muon beam has been limited by statistical uncertainty. Recently, several authors have noted that the optimal muon source for experiments such as the muon spin rotation $( \mu \mathrm { S R } )$ [14], muon electric dipole moment [15, 16], and muonium to anti-muonium conversion [17, 18] operates \in pulsed mode with a repetition rate of several tens of kHz. A non-scaling fixed-field alternating gradient (FFAG) proton accelerator technology with a frequency of a few kHz [19] has been proposed for this purpose, but is still under development [20]. The proton beam to be delivered to Fermilab‚Äôs $\mathrm { M u } 2 \mathrm { e }$ experiment [21] has a proton bunch repetition rate of $0 . 5 9 \mathrm { M H z }$ , achieved by resonantly extracting the proton bunch from a delivery ring. However, it is dedicated to the $ { \mathrm { M u } } 2  { \mathrm { e } }$ experiment. Recent work at ORNL‚Äôs SNS aimed to extract $5 0 \mathrm { k H z }$ proton pulses for $\mu \mathrm { S R }$ applications, employing laser neutralization on a hydrogen ion beam [22].$$</t>
-  </si>
-  <si>
-    <t>$$The images have been corrected at the level of a few per cent for the nonuniform collection efficiency of the optics. Pixel-to-pixel variations \in the CCD offset and a common mode have been subtracted; the signal from X-rays that hit the CCD directly has been eliminated. Simulations. The simulations were done using the quasi-static, three-dimensional, particle-\in-cell code called QuickPIC. The three-dimensional computational grid forms a box xy $z ( 2 4 0 \mu \mathrm { m } \times 2 4 0 \mu \mathrm { m } \times 2 6 0 \mu \mathrm { m } )$ \in size whose axial coordinate is z-ct. Therefore, the simulation window moves at the speed of light, which is very close to the beam speed \in the $z$ direction. The number of grid points is $2 5 6 \times 2 5 6 \times 5 1 2$ respectively. The beam is initialized so that \in vacuum, it would focus $1 5 \mathrm { c m }$ beyond the start of the lithium vapour with a $1 0 \mu \mathrm { m }$ root-mean-square spot size. The longitudinal current profile is extracted from the unique LiTrack simulation that matches the experimentally measured beam spectrum produced by the SLAC accelerator. The resulting current profile approximates a gaussian $( \sigma _{z } \approx 1 5 \mu \mathrm { m } )$ with a small tail. We use 8.4 million particles for the beam and $2 . 6 \times 1 0 ^{5 }$ particles for each ‚Äòslice‚Äô of lithium. In the quasi-static approximation, as the entire beam moves through a slice of gas, the lithium ionizes, the resulting plasma evolves transversely and, to account for the axial motion, the charge on each particle is suitably changed. The resulting plasma forces are stored for each slice and are then used to advance the momentum and position of each beam electron. The beam electrons are advanced every $1 . 0 \mathrm { m m }$ , which is 1/26th of a betatron wavelength for 42 GeV electrons \in the flat density region. The simulations were done on the Apple X-serve Dawson Cluster at UCLA.$$</t>
-  </si>
-  <si>
-    <t>$$The Livingston plot, shown \in Figure 1, illustrates how the progress \in achieving the energy frontier has been enabled by the history of invention \in accelerator science and technology. One can clearly see that over several decades, there has been an exponential growth \in the maximum attained energy. But the exponential growth \in maximum achieved energy was made possible by the development of different accelerator technologies (for example Electrostatics, Cyclotrons, Linacs, Synchrotrons, Colliders). As often occurs \in any technological field, new accelerating technologies often replaced each other once the previous technology had reached its full potential and saturates its evolution curve [1]. In more recent decades, represented by the LHC collider, the exponential energy growth has started slowing down again. This suggests that existing acceleration technologies have reached their maximum potential and further advancements would require the development of new accelerator concepts, possibly based on more compact and cost-effective methods. Promising emerging techniques, such as laser-driven and beam-driven plasma acceleration, have the potential to reestablish the exponential trend \in the energy growth depicted by the Livingston plot. Plasma wakefield accelerator relies on a coherent charge density oscillation \in a plasma to provide the accelerating force. The plasma oscillation is driven by an externally injected  short pulse, which can be either a laser (LWFA [3]) or an electron beam (PWFA [4]), which blows outward the electrons \in an ionized gas (plasma), leaving behind a region of positive charge, as shown \in Figure 2. Along the axis where the beam propagates, the electric field causes a trailing pulse of electrons injected near the rear of the bubble to feel a very strong forward acceleration. Gradient up to $1 0 0 \mathrm { ~ G V / m }$ have been observed \in several experiments [5]. Difficulties \in the plasma scheme arise from the small scales involved (sub-mm transverse diameter), required micrometer tolerances and stability which may cause beam quality degradation with respect to conventional accelerators. But \in recent time the plasma generated beam quality has advanced sufficiently to reach the requirements for driving a Free Electron Laser (FEL). There have been several reports of pilot free-electron lasing \in plasma-based accelerators: one relying on LWFA by a team \in China [6] and one relying on PWFA by the EuPRAXIA team \in Frascati [7,8], Italy. Another experiment run by a French and German team has also recently confirmed seeding of the FEL process \in a LWFA plasma accelerator [9].$$</t>
-  </si>
-  <si>
-    <t>$$ \vec { B } ( 0 , 0 , z ) = \vec { u } _{y } B _{0 } \sin ( k _{u } z ) , $$ where $k _{u } = 2 \pi / \\lambda _{u }$ with $\\lambda _{u }$ the period of the magnetic field, $B _{0 }$ is the maximum field and $\vec { u } _{y }$ is the unit vector \in $y$ direction. Due to the Maxwell equations, the curl and divergence of the static magnetic field vanish \in vacuum, $\vec { \nabla } \times \vec { B } = 0$ and $\vec { \nabla } \cdot \vec { B } = 0$ . Thus, the field acquires a $z$ component for $y \ne 0$ $$ \begin{array} { r c l } { { { \cal B } _{x } } } &amp; { { = } } &amp; { { 0 } } \\ { { { \cal B } _{y } } } &amp; { { = } } &amp; { { { \cal B } _{0 } \cosh ( k _{u } y ) \sin ( k _{u } z ) } } \\ { { { \cal B } _{z } } } &amp; { { = } } &amp; { { { \cal B } _{0 } \sinh ( k _{u } y ) \cos ( k _{u } z ) . } } \end{array}</t>
-  </si>
-  <si>
-    <t>$$The computed \in-phase angular flux density for one case is shown \in Fig. 6. New Insertion Device Control System CONCLUSION A new modular ID control system has been designed and built to handle four distinct mechanical support designs \in six different combinations with up to 13 axes each (see Fig. 7) [6]. This system provides reliable and precise synchronized motion to control the photon energy to within ${ \boldsymbol { \sim } } 1 \ { \mathrm { e V } }$ while scanning at speeds of $1 \ \mathrm { k e V / s }$ . Modules are installed and are currently undergoing final tests and checkouts prior to ID operations \in the storage ring. Delays from supply chain issues were minimal due to the great support from vendors. Development efforts are currently focused on software and automated deployment. New Insertion Device Vacuum Chamber New ID vacuum chambers (IDVCs) were designed and fabricated for the APS-U [7]. The new 5-m-long IDVCs are produced from aluminum alloy extrusions. The interior beam aperture has an elliptical profile of $6 . 3 ~ \mathrm { { m m } ~ ( h ) ~ \times }$ $1 6 . 0 \mathrm { m m }$ (w). The vacuum chamber height, straightness, and wall thickness are some of the important parameters that are machined with tight tolerances. The nominal wall thickness is $0 . 6 \ \mathrm { m m }$ . The IDVCs, shown \in Fig. 8, are equipped with a photon absorber, ion pump, and non-evaporable getter (NEG) cartridges and are leak checked prior to pre-alignment. The thin-nose surface profile is adjusted to a height within a $\pm 7 5$ -micron tolerance band, and the entire vacuum chamber assembly was adjusted during installation to match the electron-beam axis.$$</t>
-  </si>
-  <si>
-    <t>$$ j _{x } + j _{y } + j _{z } = 4 . $$ This means that the damping is not uniformly distributed along the three sub-spaces of the phase space (horizontal, vertical and longitudinal), but it is split according to specific partition numbers. These partition numbers are determined by the accelerator lattice, which gives the designers of accelerators some freedom to optimize the damping times. I.10.4 Diffraction limited storage rings The pursuit of higher brilliance and coherence is a driving force \in the development of synchrotrons. As we have seen above, while the emission of synchrotron radiation reduces the transverse emittance of the beams \in an electron synchrotron, the quantum nature of the radiation imposes a limit on how small the beam will become, and thus set a ceiling on the achievable brilliance. The source size of the $\mathrm { \\Delta X }$ -ray beam is given by the electron beam size \in the undulators. We have seen \in Section I.10.3.4 that the vertical emittance is typically significantly smaller than the horizontal emittance. The vertical beam size is indeed typically so small that the X-ray beams are diffraction-limited \in this dimension.</t>
-  </si>
-  <si>
-    <t>$$ Here, $d E$ is the dose absorbed and $d N$ is the number of electron-ion pairs created. Electrons are emitted either by inelastic soft collisions that cause excitation and ionization of the atoms or by inelastic hard collisions that knocks on delta ray electrons. There are experimental data on the $w$ -value for the secondary electron emission by inelastic soft collisions. The corresponding $w$ -value of air ranges from $w = 3 2 . 7 \mathrm { [ J / C ] }$ to $w = 3 4 . 5 \ [ \mathrm { J / C } ]$ and that of nitrogen ranges from $w = 3 5 . 2$ [J/C] to $w = 3 5 . 4$ [J/C] [6]. For the $1 . 3 \mathrm { G e V }$ proton beam energy with $5 3 8 ~ \mu \mathrm { A }$ time-averaged beam current at STS, the electron charge production rate $d C / d l$ \in an accelerator vacuum pressure $p _{\mathrm { a c c } }$ . for a unit travel length $d l$ is $$ \\frac { d C } { d l } = 3 5 . 6 \\frac { p _{\mathrm { a c c . } } } { p _{\mathrm { a t m . } } } \ [ \mathrm { m C \cdot s ^{- 1 } \cdot c m ^{- 1 } } ] ,</t>
-  </si>
-  <si>
-    <t>$$[10] A. Miura, T. Miyao, and K. Moriya, ‚ÄúApplication of carbon nanotube wire for beam profile measurement of negative hydrogen ion beam‚Äù, J. Phys.: Conf. Ser., vol. 1067, p. 072020, 2018. doi:10.1088/1742-6596/1067/7/072020 [11] A. Kumar and S. N. Melkote, ‚ÄúDiamond Wire Sawing of Solar Silicon Wafers: A Sustainable Manufacturing Alternative to Loose Abrasive Slurry Sawing‚Äù, Procedia Manuf., vol. 21, pp.549‚Äì566, 2018. doi:10.1016/j.promfg.2018.02.156 [12] G. Bellodi et al., ‚ÄúLongitudinal beam profile measurements \in Linac4 commissioning‚Äù, \in Proc. of LINAC‚Äô14, Geneva, Switzerland, paper MOPP025. pp.108‚Äì110, 2014.$$</t>
+    <t>$$\\lambda _{n}=\\frac { \\lambda _{u} } { 2 n \\gamma ^{2} } \\left(1+\\frac { K ^{2} } { 2 } \\right),$$ while we have destructive interference for even harmonics $n=2 m,m \\in \\mathbb { N }$ . If we observe the radiation under a small angle $\\vartheta$ from the beam axis,the emission is slightly red-shifted $$ \\lambda=\\frac { \\lambda _{u} } { 2 \\gamma ^{2} } \\left(1+\\frac { K ^{2} } { 2 }+\\vartheta ^{2} \\gamma ^{2} \\right) . $$ As you can see,since $\\vartheta ^{2} \\gamma ^{2} &gt; 0$,the wavelength increases the further away from the axis it is observed. the angular width $\\Delta \\vartheta$ of the radiation cone is inversely proportional to the distance $L$ traveled by the radiation: $\\begin{array} { r } { \\Delta \\theta \\propto \\frac { 1 } { L } } \\end{array}$ . This occurs because the wavefronts from different points of the trajectory become more aligned the farther they travel,effectively narrowing the observed radiation cone.$$</t>
+  </si>
+  <si>
+    <t>$$Why is the North Pole the preferred site for this experiment? What will be the circumference of this storage ring? Calculate the radiated power per electron! How would the situation change if we used protons with the same momentum? I.10.7.9 Permanent magnet undulators Which options exist to tune the photon energy of coherent radiation emitted by a permanent magnet undulator (give two options)? How is the critical photon energy from each dipole in the undulator affected by these two tuning methods? What are the consequences? I.10.7.10 Superconducting undulators Which options exist to tune the photon energy of coherent radiation emitted by a superconducting undulator (give two options)? I.10.7.11 Undulator An undulator has a length of $5 . 1 \\mathrm { m }$ and a period $\\lambda _{u}=1 5 \\mathrm { m m }$ . The pole tip field is $B _{t}=1 . 2 \\ : \\mathrm { T }$ . For a gap of $g=1 0 \\ : \\mathrm { m m }$,calculate: ‚Äì The peak field on axis $B _{0}$,‚Äì The undulator parameter $K$ . The undulator is installed in a storage ring with an electron beam energy of $E=3 { \\mathrm { G e V } } .$ Assume electron a beam current of ${ 5 0 0 } \\mathrm { m A }$,beam emittances of $\\varepsilon _{x}=1 \\mathrm { n m }$ and $\\varepsilon _{y}=1 \\mathrm { p m }$,alpha functions $\\alpha _{x}=\\alpha _{y}=0$,beta functions of $\\beta _{x}=3 . 5 \\mathrm { m }$ and $\\beta _{y}=2 \\mathrm { m }$,and calculate:$$</t>
+  </si>
+  <si>
+    <t>$$‚Äì The wavelength of radiation emitted on axis,‚Äì The relative bandwidth,‚Äì The photon flux (hint: if your calculator cannot evaluate Bessel functions,you may read the value of $Q _{n} ( K )$ from the plot in the lecture),‚Äì The electron beam size and divergence,‚Äì The effective source size and divergence,‚Äì The brilliance of the radiation at the fundamental wavelength. I.10.7.12 Undulators The energy of a synchrotron is increased by $10 \\%$,keeping the beam optics (i.e. the lattice) and the current constant. The synchrotron has an undulator. Assume that the synchrotron radiation integral $I _{2}$ along the undulator is negligible in comparison to the total integral around the ring,and that the dispersion is zero in the undulator: $D _{x}=D _{x ^{\\prime} }=0$ . We will initially assume that the undulator period,the pole tip field,and the gap are unchanged. ‚Äì By how much is the horizontal beam emittance changed? ‚Äì By how much is the photon energy of the fundamental radiation from the undulator changed? ‚Äì By how much is the brilliance of the undulator radiation changed? Assume that the effective source size is dominated by the radiation in the vertical plane,and by the electron beam phase space in the horizontal plane.$$</t>
+  </si>
+  <si>
+    <t>$$This undulator is placed in a storage ring,with an electron beam energy of $E=4 { \\mathrm { G e V } },$ and a beam current of $4 0 0 \\mathrm { m A }$ . The beam is focused to a waist of $\\sigma _{x}=\\sigma _{y}=2 0 \\mu \\mathrm { m }$ inside the undulator. ‚Äì What range can be reached with the fundamental photon energy? ‚Äì What brilliance can be reached at the fundamental photon energy? ‚Äì Is there a significant flux higher harmonics? I.10.7.19 Undulator radiation Assume an undulator of $1 5 \\mathrm { m m }$ period and $5 \\mathrm { m }$ length. The pole tip field is $B _{t}=1 . 5 \\ : \\mathrm { T }$,and the gap can be varied between 8 and $1 6 \\mathrm { m m }$ . This undulator is placed in a storage ring,with an electron beam energy of $E=3 . 2 \\mathrm { G e V },$ and a beam current of $5 0 0 \\mathrm { m A }$ . The beam is focused to a waist of $\\sigma _{x}=\\sigma _{y}=2 0 \\mu \\mathrm { m }$ inside the undulator.$$</t>
+  </si>
+  <si>
+    <t>$$‚Äì What range can be reached with the fundamental photon energy? ‚Äì What brilliance can be reached at the fundamental photon energy? ‚Äì Is there a significant flux higher harmonics? I.10.7.20 Emittance and energy spread The equilibrium emittance of an electron bunch in a storage ring occurs when factors increasing $\\varepsilon$ are compensated by those reducing $\\varepsilon$ . ‚Äì Which effect increases the horizontal emittance $\\varepsilon _{x}$ ? ‚Äì Which effect decreases the horizontal emittance $\\varepsilon _{x}$ ? ‚Äì Which effect increases the vertical emittance $\\varepsilon _{y}$ ? ‚Äì Which effect decreases the vertical emittance $\\varepsilon _{y}$ ? I.10.7.21 Swiss Light Source The Swiss Light Source (SLS) is a storage ring optimized for synchrotron radiation generation,located at PSI in Switzerland. An upgraded lattice has been calculated in view of an upgrade10. Design values for this lattice are given below (the synchrotron radiation integrals have been numerically integrated around the design lattice,including undulators and superbends for radiation generation): Table: Caption: SLS Upgrade Lattice  Body: &lt;html&gt;&lt;body&gt;&lt;table&gt;&lt;tr&gt;&lt;td&gt;Circumference&lt;/td&gt;&lt;td&gt;290.4 m&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electron energy&lt;/td&gt;&lt;td&gt;2.4 GeV&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Horizontal damping partition jx&lt;/td&gt;&lt;td&gt;1.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vertical damping partition jy&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Longitudinal damping partition jz&lt;/td&gt;&lt;td&gt;1.29&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Second synchrotron radiation integral I2&lt;/td&gt;&lt;td&gt;1.186 m-1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Fourth synchrotron radiation integral I4&lt;/td&gt;&lt;td&gt;-0.842 m-1&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;&lt;/html&gt;$$</t>
+  </si>
+  <si>
+    <t>$$How would you measure this radiation? I.10.7.27 Superconducting undulators What is the advantage of using undulators made with superconducting coils,in comparison to permanentmagnet arrays? What are drawbacks? I.10.7.28 In-vacuum undulators What are the advantages of using in-vacuum undulators? What are possible difficulties? I.10.7.29 Instrumentation How would you measure the vertical emittance in a storage ring? I.10.7.30 Top-up operation What are the advantages of top-up operation? What difficulties have to be overcome to establish top-up in a storage ring? (give one advantage and one difficulty for 1P.; give one more advantage and one more difficulty for $\\begin{array} { r } { 1 \\mathrm { P } . \\star . } \\end{array}$ .) I.10.7.31 Fundamental limits The SLS 2.0,a diffraction limited storage ring,aims for an electron energy of $2 . 4 \\mathrm { G e V }$ and an emittance of $1 2 6 \\mathrm { p m }$ . How far is this away from the de Broglie emittance,i.e. the minimum emittance given by the uncertainty principle? I.10.7.32 Applications Why are synchrotrons important for science? I.10.7.33 Applications What applications for industry are there to synchrotrons? I.10.7.34 Orbit correction Which devices are used to measure and correct the orbit inside a synchrotron?$$</t>
+  </si>
+  <si>
+    <t>$$I.10.7.55 Practical applications of synchrotron radiation The Italian Light Source Elettra is a 3rd generation synchrotron source with $2 5 9 \\mathrm { m }$ circumference,and can operate at beam energies of either $2 . 0 \\mathrm { G e V }$ or $2 . 4 \\mathrm { G e V },$ with beam currents of $3 1 0 \\mathrm { m A }$ and $1 6 0 \\mathrm { m A }$,respectively. The Machine Director is feeling thirsty,and would like to use Elettra to make a splendid espresso. By assuming that all radiation emitted as SR from the dipole magnets can be converted into heat,calculate how much time is needed for the $2 . 0 \\mathrm { G e V }$ beam to heat up the espresso water from $2 0 ^{\\circ} \\mathrm { C }$ to $8 8 ^{\\circ} \\mathrm { C }$ . One espresso is $3 0 \\mathrm { m L }$ . The radius of curvature in the dipoles is $5 . 5 \\mathrm { m }$ . Neglect potential insertion devices! Hint: the specific heat capacity of water is $\\begin{array} { r } { c _{w}=4 . 1 8 6 \\frac { \\mathrm { ~ J ~ } } { \\mathrm { g K } } } \\end{array}$$</t>
+  </si>
+  <si>
+    <t>$$File Name:NEW_INSERTION_DEVICE_CONTROL_SYSTEM_FOR_THE_APS_UPGRADE#U2217.pdf NEW INSERTION DEVICE CONTROL SYSTEM FOR THE APS UPGRADE‚àó W. Li‚Ä†,M. Qian,A. Donnelly,R. Dejus,Y. Piao,M. Smith,and M. Ramanathan Advanced Photon Source,Argonne National Laboratory,Lemont,Illinois,USA Abstract New Hybrid Permanent Magnet Undulators (HPMUs) have been designed and manufactured using servo motors for precise and reliable gap motion control for the Advanced Photon Source Upgrade (APS-U) project. Meanwhile,existing HPMUs equipped with legacy stepper motors are systematically replaced with servo motors. In parallel with mechanical modifications of the undulators,a comprehensive upgrade has been implemented for the control of the devices. This upgrade includes integration of standardized industrial components for replacement of motor controllers and motor drives using the Kollmorgen Programmable Controller Multi-axis Master (PCMM) controllers and the AKD2G series servo drives. Soft Input Output Controllers (IOCs) are developed and deployed to replace the legacy VME-based IOCs for both single-period undulators and Revolver undulators. In this paper,we will present the architecture of the new insertion device control system,including control mechanisms,interlock protocols,and tools for diagnostics and troubleshooting. INTRODUCTION New Hybrid Permanent Magnet Undulators (HPMUs) are designed and manufactured with servo motors for gap motion control in the Advanced Photon Source Upgrade (APS-U) project [1]. Alongside this development,there is a systematic transition for the legacy devices with stepper motors to be equipped with servo motors,along with upgrades in control hardware. Integral to this transition is the adoption of standardized industrial components of the Programmable Controller Multi-axis Master (PCMM) controllers and AKD2G series servo drives from Kollmorgen [2]. These components offer improved torque performance and reliability for precise gap separation mechanism (GSM) control.$$</t>
+  </si>
+  <si>
+    <t>$$DISCUSSION AND FUTURE PLANS End-to-end OTR simulations will be an important next step to demonstrate the viability of the MLA and DMD methods. Measurements with a laser source will also provide a reliable cross-check value across the DMD and MLA systems. Despite the di!raction limit,the result will be reproducible if DMD pinhole diameters are matched to the MLA apertures. Beam measurements with OTR are planned at CLEAR (CERN,CH) in the near future. Following this,it would be straightforward to adapt this technology to image other,non-interceptive,radiation sources; this would make the technique non-invasive. A noninvasive single-shot method of measuring emittance would have applications across all accelerator sectors. This is particularly the case for novel acceleration where this system could be used to non-invasively monitor both pre-injection,and post-plasma accelerated electron beams. Finally,work will commence to leverage existing experience of machine learning techniques to increase the insight a single image can provide,from advanced analysis,to machine control. ACKNOWLEDGEMENT This work is supported by the AWAKE-UK phase II project funded by STFC under grant ST/T001941/1 and the STFC Cockcroft Institute core grant ST/V001612/1. REFERENCES [1] H. Wiedemann,"Particle Accelerator Physics",4th ed.,Springer,2015. [2] M. Minty and F. Zimmermann,"Measurements and Control of Charged Particle Beams",Springer,2003.$$</t>
+  </si>
+  <si>
+    <t>$$In addition to bremsstrahlung from $\\mathrm { \\Delta } X$-ray tubes,scientists use synchrotron radiation generated by relativistic electrons in vacuum,as those are accelerated by magnetic fields. Initially perceived as a nuisance in the context of high-energy physics accelerators,synchrotron radiation emerged as a critical factor limiting the energy gain in circular electron accelerators. However,its unique characteristics‚Äî such as high brightness,broad spectrum covering from infrared to X-rays,and excellent collimation‚Äî have transformed it into an invaluable asset in areas ranging from material science to biology. In this chapter,we will encounter accelerators such as the Swiss Light Source (see Fig. I.10.1),that are built solely to generate X-rays. Synchrotrons,as well as free electron lasers,supply users with $\\mathrm { \\Delta X }$-ray beams of unsurpassed brillance,and they attract scientists from various research fields. This brillance is the figure of merit for many experiments using X-rays,and is defined as $$ B=\\frac { \\dot { N } _{\\gamma} } { 4 \\pi ^{2} \\sigma _{x} \\sigma _{y} \\sigma _{x ^{\\prime} } \\sigma _{y ^{\\prime} } ( 0 . 1 \\% \\mathrm { B W } ) } .$$</t>
+  </si>
+  <si>
+    <t>$$where $E _{\\mathrm { n o m} }$ is the nominal beam energy and $$ C _{\\gamma}=\\frac { e ^{2} } { 3 \\varepsilon _{0} ( m _{e} c ^{2} ) ^{4} } . $$ We define the following integral as the second synchrotron radiation integral $$ I _{2} :=\\oint \\frac { 1 } { \\rho ^{2} } d s . $$ From the energy lost per turn $U _{0}$ and the critical photon energy $E _{c}$,we can calculate an average number of photons to be approximately $$ \\langle n _{\\gamma} \\rangle \\approx \\frac { 1 6 \\pi } { 9 } \\alpha _{\\mathrm { f i n e} } \\gamma,$$ where $\\alpha _{\\mathrm { f i n e} } \\approx 1 / 1 3 7$ is the fine structure constant. This is a relatively small number; we will therefore have to consider the quantum nature of the radiation,and we will see later how this quantum nature ultimately defines the beam emittance in an electron storage ring.$$</t>
+  </si>
+  <si>
+    <t>$$Equation (I.10.16) becomes $$ \\begin{array} { r c l } { { \\displaystyle \\frac { \\lambda } { 2 c } } } &amp; { {=} } &amp; { { \\displaystyle \\frac { \\lambda _{u} } { 2 \\beta c } \\left(1+\\frac { K ^{2} } { 4 \\gamma ^{2} } \\right)-\\frac { \\lambda _{u} } { 2 c } } } \\ { { \\Longrightarrow } } &amp; { { \\lambda } } &amp; { {=} } &amp; { { \\displaystyle \\frac { \\lambda _{u} } { 2 \\gamma ^{2} } ( 1+K ^{2} / 2 ),} } \\end{array} $$ where we have used $\\beta=\\textstyle \\sqrt { 1-\\gamma ^{-2} } \\approx 1-\\frac { 1 } { 2 } \\gamma ^{-2}$ for $\\gamma \\gg 1$ . Radiation emitted at this wavelength adds up coherently in the forward direction. More generally,the radiation adds up coherently at all odd harmonics $n=2 m-1,m \\in \\mathbb { N }$$</t>
+  </si>
+  <si>
+    <t>$$\\begin{array} { r c l } { { \\displaystyle \\sigma _{r} } } &amp; { {=} } &amp; { { \\displaystyle \\frac { 1 } { 4 \\pi } \\sqrt { \\lambda L } } } \\ { { \\displaystyle \\sigma _{r ^{\\prime} } } } &amp; { {=} } &amp; { { \\displaystyle \\sqrt { \\frac { \\lambda } { L } } . } } \\end{array} $$ This diffraction limit is symmetric in $x$ and $y$ . The effective source size is $$ \\begin{array} { r c l } { \\sigma _{( x,y ),\\mathrm { e f f} } } &amp; {=} &amp; { \\sqrt { \\sigma _{( x,y )} ^{2}+\\sigma _{r} ^{2} } } \\end{array} $$ $$ \\begin{array} { r c l } { \\sigma _{( x ^{\\prime},y ^{\\prime} ),\\mathrm { e f f } } } &amp; {=} &amp; { \\sqrt { \\sigma _{( x ^{\\prime},y ^{\\prime} ) } ^{2}+\\sigma _{r ^{\\prime} } ^{2} } . } \\end{array}$$</t>
+  </si>
+  <si>
+    <t>$$I.10.6.3 Tomographic imaging and ptychography Tomography is a powerful imaging technique that reconstructs a three-dimensional object from its twodimensional projections. It is used widely in medicine,where it allows a detailed view of our skeleton. Synchrotron radiation sources,with their brilliant and monochromatic beams,allow reducing the exposure time to less than a millisecond while achieving micrometer resolution. This makes the technique useful for research in fields ranging from materials science to biology (see Fig. I.10.16). The process involves rotating the sample through a range of angles relative to the X-ray beam,while collecting a series of two-dimensional absorption images. The three-dimensional distribution is reconstructed from the two-dimensional images. The monochromatic and coherent X-ray beams from a synchrotron allow recording phase contrast images,which can capture finer details of biological samples than the usual absorption contrast images. In ptychography,a coherent X-ray beam is scanned across the sample in overlapping patterns,and the diffraction pattern from each area is recorded. These overlapping diffractions provide redundant information. The reconstruction algorithms used in ptychography are able to retrieve both the amplitude and phase information from the scattered wavefronts,leading to highly detailed images with nanometer resolution. Ptychography is particularly advantageous for studying materials with fine structural details and can be applied to a wide range of materials,including biological specimens,nanomaterials,and integrated electronic circuits (see e.g. https://youtu.be/GvyTiK9CNO0).$$</t>
+  </si>
+  <si>
+    <t>$$I.10.7.35 Instrumentation How would you measure the bunch length in a synchrotron? I.10.7.36 Instrumentation How would you measure the stability of the orbit in a storage ring? I.10.7.37 Detection What possibilities exist to detect X-Rays? How has the development of X-ray detectors influenced experiments at synchrotron sources? I.10.7.38 Monochromators What dispersive element is used to monochromatize X-Rays? What differences exist to monochromators for visible light? I.10.7.39 Refractive index The passage of electromagnetic radiation can be described classically by an index of refraction. What are the properties of the index of refraction of most materials at X-ray wavelengths? I.10.7.40 DLSRs How do longitudinal gradient bends contribute towards the goal of achieving a lower horizontal emittance in a diffraction limited storage ring? I.10.7.41 Diffraction limited storage rings Which of the following methods are employed to reduce the horizontal emittance in the DLSR SLS 2.0? $a$ ) Minimize the dispersion in areas of large dipole fields $b$ ) Maximize coupling between horizontal and vertical plane $c$ ) Increase the beam pipe diameter to reduce wake fields $d$ ) Alternate between insertion devices with horizontal and vertical polarization I.10.7.42 Globatron Enrico Fermi proposed the Globatron,a storage ring for protons suspended in space around the earth. This would have $5 \\mathrm { P e V }$ proton beams in a ring with $8 0 0 0 { \\mathrm { k m } }$ radius (Fig. I.10.18). Calculate:$$</t>
+  </si>
+  <si>
+    <t>$$d) . . . requires the rotation of the sample around three orthogonal axes I.10.7.52 Undulator radiation Derive the formula for the fundamental wavelength of undulator radiation emitted at a small angle $\\theta$ : $$ \\lambda=\\frac { \\lambda _{u} } { 2 \\gamma ^{2} } \\left(1+\\frac { K ^{2} } { 2 }+\\gamma ^{2} \\theta ^{2} \\right) $$ from the condition of constructive interference of the radiation emitted by consecutive undulator periods! I.10.7.53 Binding energies In which atom are the core electrons most strongly bound to the nucleus? a) Neon b) Copper c) Lithium d) Osmium e) Helium $f$ ) Iron g) Sodium $h$ ) Gold What about the valence electrons? I.10.7.54 Electron and X-Ray diffraction In comparison to diffractive imaging using electrons,X-ray diffraction. . $a$ ). . . has the advantage that the sample does not need to be in vacuum b). . . gives a stronger diffraction signal for all crystal sizes $c$ ). . . generates the same signal for all atoms in the crystal What are the consequences for the optimum sample thickness for electron diffraction in comparison to X-ray diffraction?$$</t>
+  </si>
+  <si>
+    <t>$$‚Äì Vacuum system: as a result of the smaller inner bore of the magnets,the vacuum chamber diameter needs to be reduced to a point where a conventional pumping system becomes difficult to implement. A key enabling technology is the use of a distributed getter pump system,where the entire vacuum chamber is coated with a non-evaporable getter (NEG); ‚Äì Generation of hard X-rays: the strong field in longitudinal gradient bends,peaking at 4. . . 6 Tesla,results in very hard X-rays,up to a photon energy of $8 0 \\mathrm { k e V }$ ; ‚Äì Momentum compaction factor: when designing a magnetic lattice that employs LGBs and reverse bends,one can achieve a situation where a higher-energy particle takes a shorter path. This can then result in a negative momentum compaction factor of the ring (like in proton synchrotrons below transition energy). The Paul Scherrer Institut is upgrading its storage ring in the year 2024,making use of the principles outlined in this section [5]. I.10.5 Interaction of $\\mathbf { X }$-rays with matter In the subsequent sections,we will look at the interaction of X-rays with matter,and the use of X-rays for experiments. To understand the processes that lead to absorption,scattering,and diffraction,we will proceed in three steps,and look at the interaction of $\\mathrm { \\Delta X }$-rays with:$$</t>
+  </si>
+  <si>
+    <t>$$Figure I.10.2 shows the development of the peak brilliance of $\\mathrm { \\Delta X }$-ray sources during the last century. Scientists working in synchrotron radiation facilities have gotten accustomed to an extremely high flux,as well as an excellent stability of their X-ray source. The flux is controlled on the permille level,and the position stability is measured in micrometers. Synchrotron radiation was first observed on April 24,1947 by Herb Pollock,Robert Langmuir,Frank Elder,and Anatole Gurewitsch,when they saw a gleam of bluish-white light emerging from the transparent vacuum tube of their new $7 0 \\mathrm { M e V }$ electron synchrotron at General Electric‚Äôs Research Laboratory in Schenectady,New York1. It was first considered a nuisance because it caused the particles to lose energy,but it was recognised in the 1960s as radiation with exceptional properties that overcame the shortcomings of X-ray tubes. Furthermore,it was discovered that the emission of radiation improved the emittance of the beams in electron storage rings,and additional series of dipole magnets were installed at the Cambridge Electron Accelerator (CEA) at Harvard University to provide additional damping of betatron and synchrotron oscillations. The evolution of synchrotron sources has proceeded in four generations,where each new generation made use of unique new features in science and engineering to increase the coherent flux available to experiments:$$</t>
+  </si>
+  <si>
+    <t>$$I.10.3.1 Vertical damping To begin,we will focus our attention on the vertical coordinate $y$ ; it turns out that this is the simplest case. We will look at one electron in the bunch,and choose the canonical variables $y$ for position (measured relative to the reference orbit) and $p _{y}$ to denote vertical momentum. Let us consider an electron possessing a momentum $p$ . Upon the emission of a photon with momentum $d p$,there is an associated change in momentum,which we will represent as $-d p$ . As we have seen before,it is an intrinsic property of radiation emission by relativistic particles that it predominantly occurs in the forward direction. It is therefore a useful approximation to consider the momentum of the electron $p$ and the emitted photon $d p$ to be collinear. This collinearity is depicted in Fig. I.10.6. The new momentum of the electron is then $$ \\begin{array} { r c l } { { \\vec { p ^{\\prime} } } } &amp; { {=} } &amp; { { \\vec { p }-d \\vec { p } } } \\ { { } } &amp; { { \\approx } } &amp; { { \\vec { p }-\\displaystyle \\frac { \\vec { p ^{\\prime} } } { P _{0} } d p } } \\ { { } } &amp; { {=} } &amp; { { \\vec { p } \\left(1-\\displaystyle \\frac { d \\vec { p ^{\\prime} } } { P _{0} } \\right),} } \\end{array}$$</t>
+  </si>
+  <si>
+    <t>$$The natural energy spread $\\Delta E / E$ is given by $$ \\frac { \\Delta E } { E }=\\sqrt { \\frac { C _{q} \\gamma ^{2} } { 2 j _{z} \\langle \\rho \\rangle } },$$ where $\\langle \\rho \\rangle$ is the average radius of curvature in the storage ring. Finally,in the vertical phase space of accelerators,the dynamics are somewhat different than in the horizontal or longitudinal phase spaces. This is primarily because of typically negligible dispersion in the vertical plane,and because this phase space is typically not coupled to the other dimensions. This means that,under normal conditions,variations in the energy of a particle do not significantly affect its vertical position. However,that does not exempt the vertical phase space from the effects of quantum excitation. Three effects remain that counterbalance radiation damping even in the vertical plane: ‚Äì A (small) vertical component of the emitted photon,‚Äì Intra-beam scattering,‚Äì A remnant coupling between the horizontal and vertical plane. In most accelerators,the last point usually dominates,despite a careful set-up of the accelerator lattice that avoids coupling terms. It is worth noting that quantum effects determine macroscopic effects such as the beam size in a synchrotron. In fact,the value of Planck‚Äôs constant $\\hbar$ has just the right magnitude to make practical the construction of large electron synchrotrons [3].$$</t>
+  </si>
+  <si>
+    <t>$$d \\varepsilon _{y}=-\\varepsilon _{y} \\frac { U _{0} } { E _{\\mathrm { { n o m} } } } . $$ Using the revolution period $T _{0}$ $$ \\frac { d \\varepsilon _{y} } { d t }=-\\varepsilon _{y} \\frac { U _{0} } { E _{\\mathrm { n o m} } T _{0} } . $$ The damping time is thus $$ \\tau _{y}=2 \\frac { E _{\\mathrm { { n o m} } } } { U _{0} } T _{0} . $$ We use the (classical) result from Equation I.10.9 for the power radiated by a particle of charge $e$ and energy $E _{\\mathrm { n o m} }$ . Integrating around the ring,we have the energy loss per turn $$ \\begin{array} { l l l } { { U _{0} } } &amp; { {=} } &amp; { { \\displaystyle \\oint P _{\\gamma} d t } } \\ { { } } &amp; { {=} } &amp; { { \\displaystyle \\oint \\frac { 1 } { c } P _{\\gamma} d s } } \\ { { } } &amp; { {=} } &amp; { { \\displaystyle \\frac { C _{\\gamma} } { 2 \\pi } E _{\\mathrm { n o m} } ^{4} \\oint \\frac { 1 } { \\rho ^{2} } d s . } } \\end{array}$$</t>
+  </si>
+  <si>
+    <t>$$Equation I.10.40 gives the natural horizontal emittance of the beam. A deeper inspection reveals that the main contributions to the emittance growth occur in regions where the dispersion $\\eta _{x}$ is large and the radius of curvature $\\rho$ is small,i.e. the magnetic field $B$ is large. This makes intuitively sense. An emission of a hard X-ray photon occurs predominantly in strong magnetic fields. If this coincides with a large dispersion,the effect on the beam emittance is maximized,as the electron losing energy is now on the wrong orbit for its energy. It is obviously impossible to build a storage ring without dispersion,or without magnetic fields. A careful design of the lattice can nevertheless minimize emittance growth in dipoles: ‚Äì Multi-bend achromats: unlike traditional designs that use one or two bend magnets after each straight section,a multi-bend achromat (MBA) lattice employs multiple bending magnets,interleaved with quadrupoles and sextupoles that correct for the chromaticity. The quadrupoles re-focus the beam periodically,keeping the dispersion small. By dividing the total bending angle among several magnets,the strength of each magnet can be reduced,leading to less radiation emission per bend and thus to a smaller horizontal emittance;$$</t>
+  </si>
+  <si>
+    <t>$$Radiation is emitted by electrons with a wide energy spectrum. As an example,calculate the critical energy of the photons emitted by $3 0 0 \\mathrm { G e V }$ electrons in a uniform magnetic field of $3 0 \\mathrm { n T }$ ! How can astrophysicists distinguish light that originates from synchrotron radiation from black body radiation? I.10.7.5 Large Hadron Collider A proton circulates in LHC. Assume a circumference of $2 6 . 7 ~ \\mathrm { k m }$,a particle energy of $6 . 5 ~ \\mathrm { T e V },$ and a magnetic field of $7 . 7 \\mathrm { T } .$ . Calculate: ‚Äì The Lorentz factor $\\gamma$,‚Äì The radius of curvature that the protons make in the dipoles,‚Äì The critical energy of the synchrotron radiation,‚Äì The energy emitted through synchrotron radiation in the dipoles by one proton in one turn,‚Äì Which fraction of the circumference is occupied by dipole magnets? I.10.7.6 Future Circular Collider: FCC-ee As a first step towards a future circular collider,physicists are considering an electron accelerator with $1 0 0 \\mathrm { k m }$ circumference (FCC-ee). The production of Higgs bosons (through the $Z H$ channel) is maximized when running this ring on resonance at a particle energy of $1 2 0 { \\mathrm { G e V } } .$ For an electron circulating in this ring,calculate:$$</t>
+  </si>
+  <si>
+    <t>$$‚Äì The required magnetic field in the dipoles,‚Äì The losses through synchrotron radiation per particle per turn. How would the situation change for electrons of the same energy? Calculate the required magnetic field in the dipoles,and the synchrotron losses! I.10.7.43 A particle accelerator on the Moon Imagine a particle accelerator around the circumference of a great circle of the Moon (Fig. I.10.19) [8]. Assuming a circumference of $1 1 0 0 0 { \\mathrm { k m } }$,and a dipole field of $2 0 \\mathrm { T }$,what center-of-mass energy could be achieved ‚Äì For electrons? ‚Äì For protons? For simplicity,assume the same dipole filling factor as in LHC,i.e. $67 \\%$ of the circumference is occupied by dipole magnets. What is the fundamental problem with the electron accelerator? (hint: calculate the synchrotron radiation power loss per turn,and compare to the space available for acceleration. Which accelerating gradient would be required?) Calculate the horizontal damping time for proton beams circulating in this ring. What are the implications for the operation? I.10.7.44 Diffraction Why is diffraction often used in place of imaging when using X-rays? What is the phase problem in X-ray diffraction?$$</t>
+  </si>
+  <si>
+    <t>$$File Name:LANDAU_DAMPING_WITH_A_TRANSVERSELY_GAUSSIAN_PULSED.pdf LANDAU DAMPING WITH A TRANSVERSELY GAUSSIAN PULSED ELECTRON LENS V. Gubaidulin‚àó,Synchrotron SOLEIL,Saint-Aubin,France O. Boine-Frankenheim1,V. Kornilov,GSI Helmholtzzentrum,Darmstadt,Germany 1also at TU Darmstadt,Darmstadt,Germany Abstract A pulsed electron lens produces a betatron tune shift along a hadron bunch as a function of the longitudinal coordinates,which is a longitudinal detuning. An example of transverse detuning is the tune shifts due to octupole magnets. This paper considers a pulsed electron lens as a measure to mitigate the head-tail instabilities. The analytical predictions are compared with the results of the particle tracking simulations. A pulsed electron lens is demonstrated to be a source of tune spread with two components: a static one,leading to Landau damping; and a dynamic one,leading to an effective impedance modification,which we demonstrate analytically and in our particle tracking simulations. The effective impedance modification can be important for beam stability due to devices causing longitudinal detuning,especially for nonzero head-tail modes. We explore two types of pulsed electron lenses: one with a homogeneous transverse distribution and another with a Gaussian distribution. INTRODUCTION Landau damping is [1] one of the mitigation measures against coherent beam instabilities [2,3]. Recently,several works [4‚Äì8] studied mitigation of transverse instabilities by Landau damping with longitudinal detuning. Longitudinal detuning is detuning with longitudinal coordinates. One common type of longitudinal detuning is chromaticity. It depends on energy offset $\\delta$ . Other examples of detuning with longitudinal coordinate ùëß are a radio frequency quadrupole cavity (RFQ) or a pulsed electron lens (PEL).$$</t>
+  </si>
+  <si>
+    <t>$$Images of the dispersed electrons are recorded along with the relevant beam parameters on a shot-to-shot basis. The energy gain achieved for each shot is determined as described in the Methods section. Figure 2 shows one example of the electron energy distribution between 35 and $1 0 0 \\mathrm { G e V }$ after traversing the plasma. The angle $\\theta _{0}$ at the plasma exit for this particular event was calculated to be smaller than $1 0 0 \\mu \\mathrm { r a d }$,which is negligible; therefore energy relates directly to position. The highest electron energy is $8 5 \\pm 7 \\mathrm { G e V } _{\\mathrm { ;} }$,indicating that some electrons in the tail of the beam with an initial energy of 41 GeV have more than doubled their initial energy. The implied peak accelerating field of ${ \\sim } 5 2 \\mathrm { G V } \\mathrm { m } ^{-1}$ is consistent with the fields previously measured in a $1 0 \\mathrm {-c m }$-long plasma11,indicating that the energy gain is scalable by extending the length of the plasma at least up to $8 5 \\mathrm { c m }$ . With this plasma length,in a series of 800 events,$3 0 \\%$ showed an energy gain of more than $3 0 \\mathrm { G e V }$ . Variations in the measured energy gain were correlated to fluctuations in the peak current of the incoming electron beam.$$</t>
+  </si>
+  <si>
+    <t>$$File Name:Hermann_et_al._-_2021_-_Electron_beam_transverse_phase_space_tomography_using_nanofabricated_wire_scanners_with_submicromete.pdf Electron beam transverse phase space tomography using nanofabricated wire scanners with submicrometer resolution Benedikt Hermann,1,3,\\* Vitaliy A. Guzenko,1 Orell R. H√ºrzeler,1 Adrian Kirchner,2 Gian Luca Orlandi,1 Eduard Prat,1 and Rasmus Ischebeck1 1Paul Scherrer Institut,5232 Villigen PSI,Switzerland 2Friedrich-Alexander-Universit√§t Erlangen-N√ºrnberg,91054 Erlangen,Germany 3Institute of Applied Physics,University of Bern,3012 Bern,Switzerland (Received 27 October 2020; accepted 28 January 2021; published 15 February 2021) Characterization and control of the transverse phase space of high-brightness electron beams is required at free-electron lasers or electron diffraction experiments for emittance measurement and beam optimization as well as at advanced acceleration experiments. Dielectric laser accelerators or plasma accelerators with external injection indeed require beam sizes at the micron level and below. We present a method using nano-fabricated metallic wires oriented at different angles to obtain projections of the transverse phase space by scanning the wires through the beam and detecting the amount of scattered particles. Performing this measurement at several locations along the waist allows assessing the transverse distribution at different phase advances. By applying a novel tomographic algorithm the transverse phase space density can be reconstructed. Measurements at the ACHIP chamber at SwissFEL confirm that the transverse phase space of micrometer-sized electron beams can be reliably characterized using this method.$$</t>
+  </si>
+  <si>
+    <t>$$Based on the description above,one can identify two main factors affecting the likelihood of electron cloud buildup: (i) the survival rate of a low-energy electron in the beam chamber between successive bunch passages and (ii) the amount of secondary electron emission. The former is influenced by several machine and beam parameters,but foremost the dimensions of the beam chamber and the bunch spacing. In addition,externally applied electromagnetic fields can influence the electron lifetime,for example in quadrupole magnets,the lifetime can be extended through magnetic trapping [4],while solenoid fields can reduce the lifetime by bending the electrons back towards the chamber surface [5]. The secondary electron emission is determined by the Secondary Electron Yield (SEY),which defines the amount of emitted secondary electrons as a function of the energy and incidence angle of an impinging electron. For a virgin material,or after air exposure,secondary emission is generally high,but can subsequently reduce to a lower level through beam-induced conditioning,or scrubbing,i.e. irradiation by the electrons of the electron cloud. For most commonly used beam chamber materials,the SEY is a non-monotonic function of the electron energy,with a limited energy range where the surface acts as a net emitter. Consequently,the secondary emission depends strongly on the bunch intensity and length,since they both affect the instantaneous beam field which determines the energy of accelerated electrons. In combination with the cyclotron motion of the electrons around magnetic field lines,this leads to a strong dependence of the transverse shape of the electron cloud on the applied field,with characteristic patterns for each magnetic multipole.$$</t>
+  </si>
+  <si>
+    <t>$$The electrons at the ACHIP interaction point at SwissFEL possess a mean energy of $3 . 2 ~ \\mathrm { G e V }$ and are strongly focused by an in-vacuum permanent magnet triplet [11]. A six-dimensional positioning system (hexapod) at the center of the chamber is used to exchange,align,and scan samples or a wire scanner for diagnostics. In this manuscript,we demonstrate that the transverse phase space of a focused electron beam can be precisely characterized with a series of wire scans at different angles and locations along the waist. The transverse phase space $( x-x ^{\\prime}$ and $y-y ^{\\prime} )$ is reconstructed with a novel particlebased tomographic algorithm. This technique goes beyond conventional one-dimensional wire scanners since it allows us to assess the four-dimensional transverse phase space. We apply this algorithm to a set of wire scanner measurements performed with nano-fabricated wires at the ACHIP chamber at SwissFEL and reconstruct the dynamics of the transverse phase space of the focused electron beam along the waist. II. EXPERIMENTAL SETUP A. Accelerator setup The generation and characterization of a micrometer sized electron beam in the ACHIP chamber at SwissFEL requires a low-emittance electron beam. The beam size along the accelerator is given by:$$</t>
+  </si>
+  <si>
+    <t>$$INTRODUCTION Phase space tomography [1,2] is a powerful technique for characterising a beam‚Äôs charge distribution in phase space in one or more degrees of freedom. Tomography in two transverse degrees of freedom provides a detailed understanding of the beam substructure,and also allows for characterization of the betatron coupling. However,applying the technique for multiple degrees of freedom generally requires significant computational resources. Storage of a 4D phase space distribution with $N$ data points along each axis requires a data structure with $N ^{4}$ values,and the memory resources required to manipulate the input data can be much larger. High-dimensional tomography methods may be of particular use for characterizing and operating advanced accelerators,such as high-brightness Free Electron Laser (FEL) drivers and injectors for machines using novel acceleration methods. Recent simulation work [3,4] has demonstrated a technique for 5D tomography,revealing the transverse phase space as a function of longitudinal position. Techniques leading to a reduction in the computational resources required for high-dimensional tomography are therefore of widespread interest. Tomography Section (3.36 m) Photoinjector+Laser S-Baud Linac=I Quadrupole YAG Screen RF Structure Beam Dump In principle,images can be stored in a compressed form (for example,as discrete cosine transforms) to reduce the size of the data structures involved in tomography,while retaining sufficient information to reconstruct the phase space to a good resolution. However,conventional tomography algorithms are formulated on the basis that the input data are direct projections of the initial phase space (e.g. beam images obtained for a range of betatron phase advances). Therefore,it is not obvious how compressed data can be used in the context of an established tomography algorithm.$$</t>
+  </si>
+  <si>
+    <t>$$One thus receives a series of two-dimensional diffraction patterns. The intensities of the diffracted spots relate to the absolute square of the Fourier transform of the electron density,and their positions correspond to the inverse of the spacing between planes of atoms in the crystal,as described by Bragg‚Äôs law. However,directly computing the electron density from the diffraction pattern is not straightforward due to the phase problem: the detector records only the intensity of the diffracted waves,losing information about their phases. In essence,we only measure the amplitude of the Fourier transform,not its phase,yet both are necessary for accurate reconstruction. Various methods,such as using a known similar structure as a model (molecular replacement) or adding heavy atoms to the crystal (multiple isomorphous replacement),help in estimating these phases. Once the phases are estimated and combined with the intensities,the inverse Fourier transform is used to compute the electron density. The peaks in this electron density map correspond to the locations of the atoms in the crystal. By interpreting this map,scientists can determine the precise arrangement of atoms and thus the molecular structure of the sample. Machine learning (ML) is emerging as a powerful tool in various stages of structure determination from $\\mathrm { \\Delta } X$-ray crystallography data.$$</t>
+  </si>
+  <si>
+    <t>$$To lower the emittance of the beam,the bunch charge is reduced to approximately $1 ~ \\mathrm { p C }$ from the nominal bunch charge at SwissFEL ( $1 0 \\mathrm { p C }$ to $2 0 0 \\ \\mathrm { p C } )$ . The laser aperture and pulse energy at the photo-cathode,as well as the current of the gun solenoid,are empirically tuned to minimize the emittance for the reduced charge. The emittance is measured at different locations along the accelerator with a conventional quadrupole scan [15] and a scintillating YAG:Ce screen. After the second bunch compressor,which is the last location for emittance measurements before the ACHIP chamber,the normalized horizontal and vertical emittances are found to be $9 3 \\mathrm { n m }$ rad and $1 5 7 ~ \\mathrm { n m }$ rad with estimated uncertainties below $10 \\%$ . The difference between the horizontal and vertical emittance could be the result of an asymmetric laser spot on the cathode. The electron energy at this emittance measurement location is $2 . 3 { \\mathrm { G e V . } }$ Subsequently,the beam is accelerated further to $3 . 2 \\mathrm { G e V }$ and directed to the Athos branch by two resonant deflecting magnets (kickers) and a series of dipole magnets [16]. Finally,the beam is transported to the beam stopper upstream of the Athos undulators.$$</t>
+  </si>
+  <si>
+    <t>$$Table: Caption: TABLE I. Normalized emittance $\\varepsilon _{n}$,Twiss $\\beta$-function at the waist $\\beta ^{*}$,and corresponding beam size $\\sigma ^{*}$ of the reconstructed transverse phase space distribution.  Body: &lt;html&gt;&lt;body&gt;&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Œµn (nm rad)&lt;/td&gt;&lt;td&gt;Œ≤*(cm)&lt;/td&gt;&lt;td&gt;0* (Œºm)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;186¬±15&lt;/td&gt;&lt;td&gt;3.7 ¬± 0.2&lt;/td&gt;&lt;td&gt;1.04 ¬± 0.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;y&lt;/td&gt;&lt;td&gt;278¬±18&lt;/td&gt;&lt;td&gt;3.7 ¬±0.2&lt;/td&gt;&lt;td&gt;1.26 ¬± 0.05&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;&lt;/html&gt; Figure 7 shows the beam size evolution around the waist. We quantify the normalized emittance and $\\beta$-function of the distribution by fitting a 2D Gauss function to the distribution in the $( x,x ^{\\prime} )$ and $( y,y ^{\\prime} )$ phase space. The 1-$\\mathbf { \\sigma } \\cdot \\sigma _{\\mathbf { \\lambda} }$ ellipse of the fit is drawn in blue in all subplots of Fig. 6. We use the following definition for the normalized emittance: $$ \\varepsilon _{n}=\\gamma A _{1 \\sigma} / \\pi,$$ where $A _{1 \\sigma}$ is the area of the $_{1-\\sigma}$ ellipse in transverse phase space. The values for the reconstructed emittance,minimal $\\beta$-function $( \\beta ^{*} )$ and beam size at the waist are summarized in Table I. The measurement range $( 8 \\mathrm { c m } )$ along the waist with $\\beta ^{*}=3 . 7$ cm covers a phase advance of around $9 0 ^{\\circ}$ .$$</t>
+  </si>
+  <si>
+    <t>$$ACKNOWLEDGMENTS We would like to express our gratitude to the SwissFEL operations crew,the PSI expert groups,and the entire ACHIP collaboration for their support with these experiments. We would like to thank Thomas Schietinger for careful proofreading of the manuscript. This research is supported by the Gordon and Betty Moore Foundation through Grant No. GBMF4744 (ACHIP) to Stanford University. APPENDIX A: ERROR ESTIMATION 1. Position errors The uncertainty of the position of the wire scanner with respect to the electron beam is affected by the readout precision of the hexapod $( &lt; 1 ~ \\mathrm { n m } )$,vibrational motion of the hexapod $\\phantom {+} &lt; 1 0 ~ \\mathrm { { n m } } )$ and position jitter of the electron beam,which at SwissFEL is typically a few-percent of the beam size. The orbit of the electron beam is measured with BPMs along the accelerator. Unfortunately,the BPMs along the Athos branch of SwissFEL have not been calibrated (the measurement took place during the commissioning phase of Athos). Nevertheless,we tried correcting the orbit shot-by-shot based on five BPMs and the magnetic lattice around the interaction point. However,it does not reduce the measured beam emittance,as their position reading is not precise enough to correct orbit jitter at the wire scanner location correctly. Therefore,we do not include corrections to the wire positions based on BPMs. The reconstructed beam phase space represents the average distribution for many shots including orbit fluctuations. After the calibration of the BPMs in Athos we plan to characterize the effect of orbit jitter to wire scan measurements in detail.$$</t>
+  </si>
+  <si>
+    <t>$$1 0 0 \\mu \\mathrm { m } / 1 0 0 \\mu \\mathrm { m } / 2 0 0 \\mu \\mathrm { m }$,roll angle misalignments should be better than $2 0 0 \\mu \\mathrm { r a d }$ . INSTABILITY ANALYSIS Instabilities induced by beam collective effects are dominant limitation of average current in storage rings,especially for the case of low energy like LUTF ${ 5 0 0 } \\mathrm { M e V }$ ring. For a purpose of potential higher current,the vacuum pipe is designed to octagon with copper (the left of Fig. 5). The flanges,bellows,valves are all shielded type. And all transitions are also required to have a taper smaller than 0.2 for small geometrical impedance. In the current design,the preliminary obtained total longitudinal geometrical impedance is given in the right of Fig. 5. The effective impedance $\\left| { \\frac { Z } { n } } \\right| _{\\mathrm { e f f} }=0 . 2 8 \\Omega$ . For the total resistive wall (RW) impedance,two kinds of pipes are assumed: two elliptical pipes,representing two IDs and each with a (semi-major axis,semi-minor axis,length) of (30,5.5,6000) mm and the other octagonal parts. Based on impedance,the threshold current of various instabilities can be estimated. Here,we start from CSR instability first.$$</t>
+  </si>
+  <si>
+    <t>$$The critical angle is defined as $$ \\vartheta _{c}=\\frac { 1 } { \\gamma } \\left(\\frac { \\omega _{c} } { \\omega } \\right) ^{1 / 3} . $$ Higher frequencies have a smaller critical angle. For frequencies much larger than the critical frequency,and for angles much larger than the critical angle,the synchrotron radiation emission is negligible. The total spectrum,integrated over all emission angles,is given by $$ \\frac { d I } { d \\omega }=\\int \\int _{4 \\pi} \\frac { d ^{3} I } { d \\omega d \\Omega } d \\Omega=\\frac { \\sqrt { 3 } e ^{2} } { 4 \\pi \\varepsilon _{0} c } \\gamma \\frac { \\omega } { \\omega _{c} } \\int _{\\omega / \\omega _ { c} } ^{\\infty} K _{5 / 3} ( x ) d x . $$ It is shown in Fig. I.10.4. Unlike cyclotron radiation,emitted by non-relativistic electrons,synchrotron radiation has a broadband spectrum,shifted towards higher photon energies with the cube of the Lorentz factor $\\gamma$ . In the Swiss Light Source,the Lorentz factor $\\gamma$ is approximately 5000. As a result,the critical frequency of the radiation emitted by the dipole magnets is in the exahertz range,corresponding to the $\\mathrm { \\Delta X }$-ray spectrum. The overall spectrum of synchrotron radiation covers infrared,visible,UV and X-ray wavelengths. While coherent beams in or near the visible spectrum can be conveniently generated by lasers,synchrotrons are widely used in research that requires X-ray photons. We will look at some typical$$</t>
+  </si>
+  <si>
+    <t>$$where we have used the Twiss parameter identity $\\alpha _{y} ^{2}=\\beta _{y} \\gamma _{y}$ . The change in emittance is thus proportional to the emittance,with a proportionality factor $-d p / P _{0}$ . We thus have an exponentially decreasing emittance (the factor 2 is by convention) $$ \\varepsilon _{y} ( t )=\\varepsilon _{y} ( 0 ) \\cdot \\exp \\left(-2 \\frac { t } { \\tau _{y} } \\right) . $$ This result underscores the value of the chosen variable transformation. By using action and angle variables,we can get an understanding of a key characteristic of the electron bunch: its emittance. This variable transformation is not just a mathematical maneuver; it serves as a powerful tool,offering clarity and depth to our exploration. Note that we assume the momentum of the photon to be much smaller than the reference momentum. As a result,we see a slow (i.e. an adiabatic) damping of the emittance. To proceed our determination of the vertical damping time,i.e. the decay constant of the emittance,we need to quantify the energy lost by a particle due to synchrotron radiation for each turn in the storage$$</t>
+  </si>
+  <si>
+    <t>$$How is the situation different when one decreases the gap to keep the photon energy constant? Describe qualitatively the effects on the undulator parameter $K$ and the brilliance $\\boldsymbol { B }$ ! I.10.7.13 Muons Muons are considered as an alternative to electrons for a future circular lepton collider. Argue ‚Äì Why they might be preferable to electrons? ‚Äì What could be possible disadvantages? I.10.7.14 Electrons vs. muons Consider an electron storage ring at an energy of $8 0 0 \\mathrm { M e V } .$,a circulating current of $1 \\mathrm { { A } }$,and a bending radius of $\\rho=1 . 7 8 4 \\mathrm { ~ m ~ }$ . Calculate the energy loss of each electron per turn,and the total synchrotron radiation power from all bending magnets. What would the radiation power be if the particles were 800 MeV muons? I.10.7.15 Swiss Light Source 2.0 Calculate how much energy is stored in the electron beam in the SLS-2.0 storage ring,with a circumference of $2 9 0 . 4 \\mathrm { m }$ and an average current of $4 0 0 \\mathrm { m A }$ . The particle energy is $2 . 4 { \\mathrm { G e V } } .$ Assume the RF trips off. Knowing that the momentum acceptance is $\\pm 5 \\%$,compute how long the beams survives in the ring before hitting the wall.$$</t>
+  </si>
+  <si>
+    <t>$$The proposed layout of the facility is presented in Fig. 2. Two ion sources deliver beams of protons or fully stripped helium ions,while provision is made for a third ion source delivering fully stripped carbon ions. The beams are then accelerated in a linac designed for particles with charge to mass ratio $1 / 2$,up to an energy of $7 ~ \\mathrm { M e V / u }$ . The linac is designed for $10 \\%$ duty cycle,much higher than what required for injection into the synchrotron,to allow production of radioisotopes for therapy and imaging (and for the combination of two,theragnostics) using the beam pulses that are not injected into the synchrotron. A straight beam line at linac exit brings the beams to the radioisotope production target and room. Protons and helium beams can be injected and accelerated in the synchrotron. Helium beams accelerated up to $2 2 0 \\ \\mathrm { M e V / u }$ can be sent to a research beamline,or to two treatment rooms,one equipped with a fixed beam line and the other with a gantry. Protons can also be used for research and for treatment. In addition,the higher proton energy achievable thanks to the synchrotron magnetic rigidity of $4 . 5 \\mathrm { T m }$ makes full body scans for online proton radiography possible using low intensity proton beams. It is foreseen that the facility will use the new superconducting ion gantry being developed by a wide European collaboration [9]. Additional experimental programmes with carbon ions will be also possible,by retuning the helium ion source or,preferably,by adding a third source dedicated to production of heavier ions at lower intensity.$$</t>
+  </si>
+  <si>
+    <t>$$RAPID CYCLING SYNCHROTRON Bunches circulating in the ESR are replaced on a regular basis in order to maintain high average polarization levels,using a rapid cycling synchrotron (RCS). The RCS needs to ramp over a wide energy range,from $4 0 0 \\mathrm { M e V }$ at injection to up to $1 8 \\mathrm { G e V }$ at extraction into the ESR. This raises concerns about the magnetic field quality at injection energy,when due to the low field values errors from remanent field e!ects can be particularly large. To raise the dipole field at injection to levels demonstrated at other facilities,each dipole is therefore split into three segments of equal length,and only the center dipole is powered to $1 9 0 \\mathrm { G }$ at injection while the two outer ones are at zero field after some de-gaussing process. Studies on the magnetic field tolerances are underway [27]. Bunches are supplied to the RCS from a $4 0 0 \\mathrm { M e V }$ S-band LINAC,operating at a repetition rate of $1 0 0 \\mathrm { H z }$ . Four $7 \\mathrm { n C }$ LINAC bunches supplied by the gun [28,29] are injected into the RCS and merged there into a single bunch at around 1 GeV [30].$$</t>
+  </si>
+  <si>
+    <t>$$File Name:Ischebeck_-_2024_-_I.10_‚Äî_Synchrotron_radiation.pdf Chapter I.10 Synchrotron radiation Rasmus Ischebeck Paul Scherrer Institut,Villigen,Switzerland Electrons circulating in a storage ring emit synchrotron radiation. The spectrum of this powerful radiation spans from the far infrared to the $\\boldsymbol { \\mathrm { \\Sigma } } _{\\mathrm { X} }$-rays. Synchrotron radiation has evolved from being a mere byproduct of particle acceleration to a powerful tool leveraged in diverse scientific and engineering fields. Indeed,synchrotrons are the most brilliant X-ray sources on Earth,and they find use in a wide range of fields in research. In this chapter,we will look at the generation of radiation of charged particles in an accelerator,at the influence of this on the beam dynamics,and on the physics behind applications of synchrotron radiation for research. I.10.1 Introduction It is difficult to overstate the importance of X-rays for medicine,research and industry. Already a few years after their discovery by Wilhelm Conrad R√∂ntgen,their ability to penetrate matter established Xrays as an important diagnostics tool in medicine. Experiments with $\\mathrm { \\Delta X }$-rays have come a long way since the inception of the first $\\mathrm { \\Delta } X$-ray tubes. The short wavelength of $\\mathrm { \\Delta X }$-rays allowed Rosalynd Franklin and Raymond Gosling to take diffraction images that would lead to the discovery of the structure of DNA. Today,X-ray diffraction is an indispensable tool in structural biology and in pharmaceutical research. Industrial applications of X-rays range from cargo inspection to sterilization and crack detection.$$</t>
+  </si>
+  <si>
+    <t>$$where $P _{0}$ is the momentum of the reference particle. Since $\\vec { p }$ and $d \\vec { p }$ are collinear,the same relation can be written for the $y$ component of $\\vec { p }$,$p _{y}$ $$ p _{y} ^{\\prime} \\approx p _{y} \\left(1-\\frac { d p } { P _{0} } \\right) . $$ In order to analyze the effect on the beam,it becomes appropriate to transition to a more beneficial set of coordinates. Specifically,we will use the action and angle variables $J _{y}$ and $\\varphi _{y}$ . It is essential to underscore that these coordinates are not arbitrary choices; they too are canonical variables. Their significance lies in their ability to offer a more structured view into the dynamics of the entire beam. The action $J _{y}$ is,by its definition $$ J _{y}=\\frac { 1 } { 2 } \\gamma _{y} y ^{2}+\\alpha _{y} y p _{y}+\\frac { 1 } { 2 } \\beta _{y} p _{y} ^{2} .$$</t>
+  </si>
+  <si>
+    <t>$$After the emission of a photon,the action of our single electron is $$ \\begin{array} { r c l } { { J _{y} ^{\\prime} } } &amp; { {=} } &amp; { { \\displaystyle \\frac { 1 } { 2 } \\gamma _{y} y ^{2}+\\alpha _{y} y p _{y} \\left(1-\\frac { d p } { P _{0} } \\right)+\\frac { 1 } { 2 } \\beta _{y} p _{y} ^{2} \\left(1-\\frac { d p } { P _{0} } \\right) ^{2} } } \\ { { } } &amp; { { } } &amp; { { } } \\ { { } } &amp; { {=} } &amp; { { \\displaystyle \\frac { 1 } { 2 } \\gamma _{y} y ^{2}+\\alpha _{y} y p _{y}-\\alpha _{y} y p _{y} \\frac { d p } { P _{0} }+\\frac { 1 } { 2 } \\beta _{y} p _{y} ^{2}-2 \\cdot \\frac { 1 } { 2 } \\beta _{y} p _{y} ^{2} \\frac { d p } { P _{0} }+\\frac { 1 } { 2 } \\beta p _{y} ^{2} \\left(\\frac { d p } { P _{0} } \\right) ^{2} . } } \\end{array}$$</t>
+  </si>
+  <si>
+    <t>$$The change in action is thus $$ \\begin{array} { l l l } { { d J _{y} } } &amp; { {=} } &amp; { { J _{y} ^{\\prime}-J _{y} } } \\ { { } } &amp; { { } } &amp; { { } } \\ { { } } &amp; { { \\approx } } &amp; { { \\displaystyle-\\alpha _{y} y p _{y} \\frac { d p } { P _{0} }-\\beta _{y} p _{y} ^{2} \\frac { d p } { P _{0} } } } \\ { { } } &amp; { { } } &amp; { { } } \\ { { } } &amp; { {=} } &amp; { { \\displaystyle-\\left(\\alpha _{y} y p _{y}+\\beta _{y} p _{y} ^{2} \\right) \\frac { d p } { P _{0} } . } } \\end{array}$$</t>
+  </si>
+  <si>
+    <t>$$The above three formulas assume that the initial vertical emittance is zero and that the invariant emittance is Œµ0. The last term adds a small contribution to the line width from the finite damping time of the transverse single particle motion. This is shown in Fig. 4 where the results of mapping simulations are presented in comparison with the above approximate formulas which do not take into account the coupling with the longitudinal plane. Note,that moment mapping is based on equilibrium and cannot describe the correct development of the emittances over time. Usually,this is not a serious problem since skew gradient or other coupling errors in a storage ring are static and we observe only the equilibrium situation anyway. SUMMARY The simplified treatment of radiation can be used to find an analytical formula for the emittance close to the linear difference coupling resonance in a region where coupling competes with damping and diffusion and the Hamiltonian approach is not applicable. REFERENCES [1] G. Guignard,‚ÄúBetatron coupling and related impact of radiation‚Äù,Phys. Rev. E,vol. 51,p. 6104,1995. [2] K. Hirata,F. Ruggiero,‚ÄúTreatment of Radiation for Multiparticle Tracking in Electron   Storage Rings‚Äù,Part. Acc.,vol. 28,pp. 137-142,1990.$$</t>
+  </si>
+  <si>
+    <t>$$If the phase of the radiation wave advances by $\\pi$ between $A$ and $B$,the electromagnetic field of the radiation adds coherently3. The light moves on a straight line $\\overline { { A B } }$ that is slightly shorter than the sinusoidal electron trajectory $\\widetilde { A B }$ $$ { \\frac { \\lambda } { 2 c } }={ \\frac { \\widetilde { A B } } { v } }-{ \\frac { \\overline { { A B } } } { c } } . $$ The electron travels on a sinusoidal arc of length $\\widetilde { A B }$ that can be calculated as $$ \\begin{array} { r l } { \\overrightarrow { A B } } &amp; {=\\displaystyle \\int _{0} ^{\\infty} \\sqrt { 1+\\left(\\frac { \\mathrm { d } x } { \\mathrm { d } \\xi } \\right) ^{2} } \\mathrm { d } z } \\ &amp; { \\approx \\displaystyle \\int _{0} ^{\\infty} \\left(1+\\frac { 1 } { 2 } \\left( \\frac { \\mathrm { d } x } { \\mathrm { d } \\xi } \\right) ^{2} \\right) \\mathrm { d } z } \\ &amp; {=\\displaystyle \\int _{0} ^{\\infty} \\left(1-\\frac { K ^{2} } { 2 \\sqrt { 3 \\xi _{0} ^{2} \\gamma ^{2} } } \\mathrm { e } ^{\\mathrm { i} \\xi } \\mathrm { d } \\xi \\right) \\mathrm { d } z } \\ &amp; {=\\displaystyle \\int _{0} ^{\\infty} \\left(1-\\frac { K ^{2} } { 2 \\sqrt { 3 \\xi _{0} ^{2} \\gamma ^{2} } } \\mathrm { e } ^{\\mathrm { i} \\xi } \\mathrm { d } \\xi \\right) \\mathrm { d } z } \\ &amp; {=\\displaystyle \\frac { \\lambda _{0} } { 2 } \\left(1+\\frac { K ^{2} } { 4 ( 3 \\xi _{0} ^{2} \\gamma ^{2} ) } \\right) } \\ &amp; { \\approx \\displaystyle \\frac { \\lambda _{0} } { 2 } \\left(1+\\frac { K ^{2} } { 4 \\gamma ^{2} } \\right) . } \\end{array}$$</t>
+  </si>
+  <si>
+    <t>$$where $J$ is the Bessel function of the first kind. As $K$ increases,the higher harmonics play a more signicificant role,but the fundamental harmonic always has the highest flux. I.10.3 Effects of the emission of radiation on beam dynamics In this section,we will delve deeper into the interplay between the radiation emission and the ensuing dynamics of the beam. The treatment closely follows the book by Wolski [4]. First,we will explore the energy transfer that occurs when an electron emits a photon. Following this,we will make a coordinate transformation to the more beneficial action and angle variables,providing a clearer perspective on the underlying mechanisms. We will then proceed to compute the ensemble average to calculate the implications on the emittance of the beam. A noteworthy observation will emerge from our analysis: the emittance decreases exponentially,plateauing at a limit dictated by the fundamental principles of quantum mechanics. This revelation underscores the intricate ties between quantum mechanics and relativistic beam dynamics,shedding light on the broader consequences of radiation emission in storage rings. In the following sections,we will make use of Hamiltonian mechanics. Those not familiar with this matter are invited to watch two introductory videos: "Hamiltonian formalism $1 ^{\\dag 6}$ and "Hamiltonian formalism 2"7.$$</t>
+  </si>
+  <si>
+    <t>$$All synchrotron radiation integrals are a function of the lattice,independent of the properties of the stored beam. Again,Equation I.10.32 would predict an emittance that decays exponentially,approaching zero. The reason that this does not happen in reality is that there are effects that increase the horizontal emittance and thus result in a non-zero equilibrium emittance. We will soon look at these effects,but not before examining the longitudinal phase space. I.10.3.3 Longitudinal damping We will now look at the effect of synchrotron radiation on the longitudinal phase space $( z,\\delta )$ . Electrons that have a larger energy than the reference particle radiate more,while those that have smaller energy radiate less. This leads to a damping of the oscillations in the longitudinal phase space (the so-called synchrotron oscillations),and the longitudinal emittance,i.e. the phase space volume of the beam,decays exponentially. This phase space is again coupled to the horizontal phase space,for the reasons mentioned above. Finding the damping time,one follows a derivation similar as in the vertical phase space: ‚Äì Write down the equations of motion of a single electron in the longitudinal phase space,including losses through synchrotron radiation;$$</t>
+  </si>
+  <si>
+    <t>$$I.10.2 Generation of radiation by charged particles An accelerated charge emits electromagnetic radiation. An oscillating charge emits radiation at the oscillation frequency,and a charged particle moving on a circular orbit radiates at the revolution frequency. As soon as the particles approach the speed of light,however,this radiation is shifted towards higher frequencies,and it is concentrated in a forward cone,as shown in Fig. I.10.3. I.10.2.1 Non-relativistic particles moving in a dipole field Let us first look at non-relativistic particles. In a constant magnetic field with magnitude $B$,a particle with charge $e$ and momentum $p=m v$ will move on a circular orbit with radius $\\rho$ $$ \\rho=\\frac { p } { e B } . $$ This is an accelerated motion,and the particle emits radiation. For non-relativistic particles,this radiation is called cyclotron radiation,and the total emitted power is $$ P=\\sigma _{t} \\frac { B ^{2} v ^{2} } { \\mu _{0} c },$$ where $\\sigma _{t}$ is the Thomson cross section $$ \\sigma _{t}=\\frac { 8 \\pi } { 3 } \\left(\\frac { e ^{2} } { 4 \\pi \\varepsilon _{0} m c ^{2} } \\right) ^{2} .$$</t>
+  </si>
+  <si>
+    <t>$$which is Bragg‚Äôs law. Note that contrary to the diffraction on a two-dimensional surface,which is often considered fir visible light,$\\mathrm { \\Delta } \\mathrm { X }$-rays diffract on a three-dimensional crystal lattice. In this case,not only the exit angle matters,but also the incoming angle must fulfill the resonance condition! X-ray diffraction is one of the key techniques to resolve molecular structure in samples that can be crystallized. In the following section,we will look at different applications of synchrotron radiation in science,medicine and industry. I.10.6 Applications of synchrotron radiation Synchrotron radiation is used in a wide range of scientific and industrial applications,and over 60 synchrotron radiation sources are operating around the world. New facilities are under construction,reflecting the growing demand in research and industrial applications. I.10.6.1 Diffraction Coherent diffraction on crystals has been used before the emergence of synchrotrons,at the time enabled by X-ray tubes. The renowned Photo 51,recorded by Rosalind Franklin and her student Raymond Gosling,found its way (through dubious ways) into the hands of James Watson and Francis Crick,who used it to decipher the double helix structure of DNA (see Fig. I.10.12). Why do scientists use diffraction in place of imaging to determine the structure of molecules? Would it not be easier to simply magnify the X-ray image onto a detector,as we do in transmission electron microscopes?$$</t>
+  </si>
+  <si>
+    <t>$$and the equilibrium value,also called the natural horizontal emittance is $$ \\varepsilon _{x} ( \\infty )=C _{q} \\gamma ^{2} \\frac { I _{5} } { j _{x} I _{2} },$$ where the fifth synchrotron radiation integral $I _{5}$ is defined in Equation I.10.35,and the electron quantum constant $C _{q}$ is $$ C _{q}=\\frac { 5 5 } { 3 2 \\sqrt { 3 } } \\frac { \\hbar } { m _{e} c } \\approx 3 . 8 3 2 \\cdot 1 0 ^{-1 3} \\mathrm { m } . $$ (The factor $\\frac { 5 5 } { 3 2 { \\sqrt { 3 } } }$ comes from the calculation of the emission spectrum of synchrotron radiation,integrating over all photon energies and angles). A similar effect occurs in the longitudinal phase space. An electron emitting an X-ray photon loses a small,but significant fraction of its energy. This induces an energy spread among the electrons in the bunches. This energy spread,in tandem with the action of dispersion in the accelerator,results in an increase in the longitudinal phase space distribution,thereby increasing the longitudinal emittance of the beam. Quantum excitation thus acts as a natural counterpart to radiation damping.$$</t>
+  </si>
+  <si>
+    <t>$$Computing the photon flux $\\dot { N } _{\\gamma}$ for an undulator is even more elaborate than the calculation for a single dipole,and we just cite the result [2] $$ { \\dot { N } } _{\\gamma}=1 . 4 3 \\cdot 1 0 ^{1 4} N I _{b} Q _{n} ( K ),$$ where $$ Q _{n} ( K )=\\frac { 1+K ^{2} / 2 } { n } F _{n} ( K ) . $$ We denote the harmonic number by $n=2 m-1$ with $m \\in \\mathbb { N }$,the number of periods in the undulator by $N$,the beam current in A by $I _{b}$,the undulator parameter by $K$,and $F _{n} ( K )$ is given by $$ \\begin{array} { r c l } { { F _{n} ( K ) } } &amp; { {=} } &amp; { { \\displaystyle \\frac { n ^{2} K ^{2} } { ( 1+K ^{2} / 2 ) ^{2} } \\left(J _{( n+1 ) / 2} ( Y )-J _{( n-1 ) / 2} ( Y ) \\right) ^{2} } } \\ { { } } &amp; { { } } &amp; { { } } \\ { { Y } } &amp; { {=} } &amp; { { \\displaystyle \\frac { n K ^{2} } { 4 ( 1+K ^{2} / 2 ) },} } \\end{array}$$</t>
+  </si>
+  <si>
+    <t>$$When deriving the equations for the beam dynamics in the horizontal phase space,we need to consider: ‚Äì Change in momentum: the emission of radiation leads to a recoil of the electron. This change in momentum is the same that we considered in the vertical phase space; ‚Äì Dispersion: the emission of radiation results in a change in the energy deviation,denoted as $\\delta$ . This deviation brings about subsequent changes in the horizontal coordinate $x$ and its associated momentum $p _{x}$ . When we explored the beam dynamics in the vertical phase space,we ignored the second factor,as we assumed that the vertical dispersion is zero. This assumption streamlined the analysis,but it can certainly not be made in the horizontal dimension. While the details of the interplay between the emission of synchrotron radiation and the damping of the emittance are unique to each plane,the outcomes are similar. The horizontal emittance decays exponentially $$ \\frac { d \\varepsilon _{x} } { d t }=-\\frac { 2 } { \\tau _{x} } \\varepsilon _{x} $$ $$ \\Rightarrow \\varepsilon _{x} ( t )=\\varepsilon _{x} ( 0 ) \\exp \\left(-2 \\frac { t } { \\tau _{x} } \\right)$$</t>
+  </si>
+  <si>
+    <t>$$A. Resolution limit The ultimate resolution limit of the presented tomographic characterization of the transverse beam profile depends on the roughness of the wire profile. With the current fabrication process,this is on the order of $1 0 0 ~ \\mathrm { { n m } }$ estimated from electron microscope images of the freestanding gold wires. This is one to two orders of magnitude below the resolution of standard profile monitors for ultrarelativistic electron beams (YAG:Ce screens) [5,6]. B. Comparison to other profile monitors The scintillating screens (YAG:Ce) at SwissFEL achieve an optical resolution of $8 \\ \\mu \\mathrm { m }$,and the smallest measured beam sizes are $1 5 \\ \\mu \\mathrm { m }$ [6]. At the Pegasus Laboratory at UCLA beam sizes down to $5 \\mu \\mathrm { m }$ were measured with a $2 0 \\ \\mu \\mathrm { m }$ thick YAG:Ce screen in combination with an invacuum microscope objective [5]. Optical transition radiation (OTR) based profile monitors are only limited by the optics and camera resolution [23]. At the Accelerator Test Facility 2 at KEK this technique was used to measure a beam size of $7 5 0 ~ \\mathrm { n m }$ [7]. However,OTR profile monitors are not suitable for compressed electron bunches (e.g.,at FELs) due to the emission of coherent OTR [24].$$</t>
+  </si>
+  <si>
+    <t>$$In the last step of each iteration,a small random value is added to each coordinate according to the Gaussian kernel defined in Eq. (2). This smoothes the distribution on the scale of $\\rho$ . For the reconstruction of the measurement presented in Sec. IV,$\\rho _{x,y}$ was set to $8 0 \\ \\mathrm { n m }$ . The iterative algorithm is terminated by a criterion based on the relative change of the average of the difference $\\Delta _{z,\\theta} ^{i}$ (further details in Appendix B). The measurement range along $z$ ideally covers the waist and the spacing between measurements is reduced close to the waist,since the phase advance is the largest here. Since the algorithm does not where $P _{z,\\theta} ^{m}$ and $P _{z,\\theta} ^{r}$ are the measured and reconstructed projections for the current iteration at position $z$ and angle $\\theta$ . The difference between both profiles quantifies over-and underdense regions in the projection. Then,$\\Delta _{z,\\theta} ( \\xi )$ is interpolated back to the particle coordinates along the wire scan direction,yielding $\\Delta _{z,\\theta} ^{i}$ for the ith particle. Afterwards,we calculate the average over all measured $z$ and $\\theta$ :$$</t>
+  </si>
+  <si>
+    <t>$$An example of the laser pulse waveforms from the amplifier is shown in Fig. 3. The top plot shows the $6 0 \\mathrm {-H z }$ macropulses. Each macropulse contains ${ \\sim } 2 0$ sub-pulses with flexible repetition rates and pulse durations. Finally,each sub-pulse contains multiple micro-pulses whose repetition frequency and pulse width are determined by the seed laser. By optimizing the beam size and time delays between pumping and laser pulses,even a two-stage amplifier scheme can amplify the pulse energy from a subnanojoule level to a few millijoules. The beam quality was measured to be $\\mathbf { M } ^{2} \\sim 1 . 1 5$ . It worths noting that the above multi-layer temporal structure,also known as a laser comb,has been used to simultaneously measure profile or emittances of an operational beam at different portions of a macropulse or within a turn from a single scan [2]. There are 10 laser-based $\\mathrm { H } ^{-}$ beam diagnostic stations installed along the SNS linac. The laser beam is sent to the measurement locations through a free-space transport line. At each measurement station,a motorized pick-up mirror is used to redirect the laser beam to the measurement chamber. The furthest measurement station is about 250 meters away from the laser lab. To deliver the laser beam to all individual measurement stations with proper beam size,we introduced image relay lens pairs or telescopes in the transport line. Figure 4 shows the locations of the measurement stations and telescopes installed in the transport line. Three telescopes,each consisting of a pair of lenses with adjustable spacing,are installed in the laser lab and two locations (95 and 185 meters away from the laser,respectively) in the transport line. The image relay optics delivers laser beam with proper beam sizes at individual measurement stations. The laser beam spot on the view screen is monitored by a digital camera. The beam position is stabilized by an active feedback that steers the mirror based on the position of the laser beam monitored along the transport line.$$</t>
+  </si>
+  <si>
+    <t>$$Two important aspects: ‚Äì The photon energy is proportional to the square of the energy of the electrons; ‚Äì The photon energy decreases with higher magnetic field.4 We are looking at spontaneous radiation,thus the total energy loss of the electrons is proportional to the distance travelled. Consequently,the total intensity of the radiation grows proportionally to the distance travelled. The width of the radiation cone for the fundamental wavelength decreases inversely proportional to the distance,therefore the central intensity grows as the square of the undulator length. The radiation is linearly polarized in $x$ direction. Undulators thus make use of the coherent enhancement of the radiation of each electron individually,which leads to a substantial increase in brillance (Equation I.10.1). This coherence occurs at specific wavelengths,which can be tuned by adjusting the strength of the magnetic field5,and occurs in a very narrow angle around the forward direction. Free electron lasers achieve an additional coherent enhancement from multiple electrons in each microbunch,which results in another supercalifragilisticexpialidocious enhancement in the peak brilliance. To compute the brillance of the radiation from an undulator,one first has to determine the flux $\\dot { N } _{\\gamma}$ and the effective source size $\\boldsymbol { \\sigma } _{( x,y ) \\mathrm { e f f} }$ and divergence $\\sigma _{( x ^{\\prime},y ^{\\prime} ),\\mathrm { e f f } }$ . These are given by the electron beam size $\\sigma _{( x,y )}$ and divergence $\\sigma _{( x ^{\\prime},y ^{\\prime} ) }$,and the diffraction limit for the radiation. Electron beam size and divergence can be calculated from the Twiss parameters $\\beta$ and $\\gamma$,and the emittance $\\varepsilon$ of the beam. The diffraction limits for the radiation $\\sigma _{r}$ and $\\sigma _{r ^{\\prime} }$ can be calculated,considering the length of the source (which is equal to the undulator length) $L$$</t>
+  </si>
+  <si>
+    <t>$$‚Äì Fourtihogneneexrtartaiocnti:oFnr.oAmccthoerd2i0n1g0lsyonewiatrhdes.r tAhlseoskonuorwcne assizdeiffnraocrtitohneliamnitgeudlsatrorage rings (DLSsRpsr),etahde sewfearciel itoiepstifematiuzreds iagsn ifaicra natsl ytrhed urcaedihaotiriozno nitsa lceomnicttearnnce,di.ncreasing the coherent flux siVgenirfyi casnotloy.n Wdeewdillclaotoekd atftahceislietinesd,etawilhinerSe ctihoen  I.u1n0i.4q.uEe xapmuprlepsoisnec luodfe MA iXnItVh in Lutnhd,e Sewledcetnr,oan datcheceulpecroamtionr g SwLaSs 2t.0o inseVrilvlie geans,Sa wiltizgehrlta nsdo. Synchrotronesleacretrtohne dset-ofraactgoestraindgasr,dwfohrerreseetarhceh eulseincgtrconhserecinrtcXu-lratyebaetamas. Tnhsetyanarte operated by nationaleonreErguryo paenadn trhese raracdh alatbiorna tlorises s,is wrheoplmeankieshthed mbay vaRiFl apbloewtoera. cBadEeSmSiYc  I aind indusftrioalm researchers.BeSrylnicnh,roGtreornms arney naonwds utphpel eNmaetnitoednabl ySfryenecehlercotrtornonl asLeirgsh(t FSEoLus)r,cwe h(icNhSLmSa)ke usetorfoan linear acceler ator to generate u ltrabr ight  electron  be ams that radi ate c oherent ly in lo ng  undulators. FaEnLds are treated in Chapte r II I.7. The key properties of synchrotron radiation are: ‚Äì Broad spectrum available,‚Äì High flux,‚Äì High spectral brightness,‚Äì High degree of transverse coherence,‚Äì Polarization can be controlled,‚Äì Pulsed time structure,‚Äì Stability,‚Äì Power can be computed from first principles. We will now navigate through the electromagnetic theory to understand how synchrotron radiation is generated when relativistic electrons are subjected to magnetic fields,noting in particular undulators,insertion devices present in every synchrotron radiation source. We will then look at the effect of the emission of synchrotron radiation on the particle bunches in a storage ring,and come to the surprising conclusion that this actually improves the emittance of the beam. We will then explore recent technological advancements in accelerator physics,which allow improving the transverse coherence of the $\\mathrm { \\Delta } X$-ray beams significantly. Finally,we will look at the interaction of $\\mathrm { \\Delta } X$-rays with matter,and give an overview of scientific uses of synchrotron radiation.$$</t>
+  </si>
+  <si>
+    <t>$$and $$ \\vec { A } ( \\vec { x },t )=\\frac { 1 } { 4 \\pi \\varepsilon _{0} C ^{2} } \\int d ^{3} \\vec { x } ^{\\prime} \\int d t ^{\\prime} \\frac { \\vec { j } ( \\vec { x } ^{\\prime},t ) } { | \\vec { x }-\\vec { x } ^{\\prime} | } \\delta \\left(t ^{\\prime}+\\frac { \\vec { x }-\\vec { x } ^{\\prime} } { c }-t \\right) . $$ Solving the wave equation in this most general sense is quite elaborate. The derivation can be found in Jackson [1],Chapter 6. Here,we just cite the result: the intensity of the radiation per solid angle $d \\Omega$ and per frequency interval $d \\omega$ is given by $$ \\frac { d ^{3} I } { d \\Omega d \\omega }=\\frac { e ^{2} } { 1 6 \\pi ^{3} \\varepsilon _{0} c } \\left(\\frac { 2 \\omega \\rho } { 3 c \\gamma ^{2} } \\right) ^{2} \\left(1+\\gamma ^{2} \\vartheta ^{2} \\right) ^{2} \\left[ K _{2 / 3} ^{2} ( \\xi )+\\frac { \\gamma ^{2} \\vartheta ^{2} } { 1+\\gamma ^{2} \\vartheta ^{2} } K _{1 / 3} ^{2} ( \\xi ) \\right],$$</t>
+  </si>
+  <si>
+    <t>$$ring. We start with the radiation power $$ P _{\\gamma}=\\frac { C _{\\gamma} } { 2 \\pi } c \\frac { E ^{4} } { \\rho ^{2} } . $$ As the energy spread and the change in energy around one turn will be small,we can replace the particle energy $E$ by the nominal energy $E _{\\mathrm { n o m} }$ . The emission of synchrotron radiation leads to a decrease in the energy of the particles within a storage ring. In order to maintain these particles within the beam pipe,it is imperative to counterbalance this energy loss. This compensation is achieved using radio frequency (RF) cavities. These cavities are specifically designed to accelerate particles in the forward direction,ensuring their continued trajectory within the ring. The $y$ component of the momentum is thus unchanged. In Fig. I.10.6,the momentum of a particle,after undergoing energy diminution due to radiation emission and subsequent re-acceleration by the RF cavities,is denoted as $p ^{\\prime \\prime}$ . Let us get back to the change of emittance in one turn$$</t>
+  </si>
+  <si>
+    <t>$$The new circumference of the proton and heavy ion synchrotron is $3 9 . 9 6 \\mathrm { m }$,and the maximum magnetic rigidity of the dipole magnets is $2 . 3 2 \\ \\mathrm { T m }$ . It can complete the injection,capture,acceleration and extraction process of the required ${ \\mathrm { B i } ^{3 2+} }$,$\\mathrm { K r ^{1 8+} }$,$\\mathrm { H e ^{1+} }$,$\\mathbf { A r } ^{1 1 \\dagger}$,$\\mathrm { S i ^{8+} }$,$C ^{4+}$ and $\\mathrm { H } ^{+}$ in the synchrotron. Finally,the energy of each particle reaches the demand of the application. The main parameters of particles are shown in Table 1. Table: Caption: Table 1: Main Parameters Of Particles  Body: &lt;html&gt;&lt;body&gt;&lt;table&gt;&lt;tr&gt;&lt;td&gt;Ion type&lt;/td&gt;&lt;td&gt;Charge-mass ratio&lt;/td&gt;&lt;td colspan="2"&gt;Enery&lt;/td&gt;&lt;td colspan="2"&gt;Rqvolution fre-&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td rowspan="3"&gt;Min.&lt;/td&gt;&lt;td&gt;Max.&lt;/td&gt;&lt;td&gt;Min.&lt;/td&gt;&lt;td&gt;Max.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Bi32+&lt;/td&gt;&lt;td&gt;0.16&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;0.49&lt;/td&gt;&lt;td&gt;0.85&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Kr18+&lt;/td&gt;&lt;td&gt;0.21&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;0.49&lt;/td&gt;&lt;td&gt;0.85&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Hel+&lt;/td&gt;&lt;td&gt;0.28&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;44&lt;/td&gt;&lt;td&gt;049&lt;/td&gt;&lt;td&gt;069&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Arl1+&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Si8+C4+&lt;/td&gt;&lt;td&gt;0.29&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;0.49&lt;/td&gt;&lt;td&gt;0.91&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.33&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;200&lt;/td&gt;&lt;td&gt;0.49&lt;/td&gt;&lt;td&gt;1.03 4.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;H+&lt;/td&gt;&lt;td&gt;1.00&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.91&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;&lt;/html&gt; RESEARCH ON LONGITUDINALDYNAMICS In the operation of synchrotron,the frequency of RF system is h times the revolution frequency (h is a positive integer,called harmonic number). Considering the low frequency corresponding to the injection energy of heavy ions,which is not within the working bandwidth range of the RF system,the harmonic wave of $\\scriptstyle \\mathtt { h }=2$ can be used to capture the heavy ion beam for acceleration,and the harmonic wave of $\\scriptstyle \\mathrm { h=1 }$ to capture the proton for acceleration. According to the height formula and the area formula of the bucket (the area where particles can exist stably in longitudinal motion),the harmonic wave of $\\scriptstyle \\mathrm { h=} 2$ has a lower height and smaller area than the bucket of the wave of $\\scriptstyle \\mathrm { h=1 }$ under the same voltage amplitude.$$</t>
+  </si>
+  <si>
+    <t>$$INTRODUCTION Research in fundamental physics and applied science using muons has gained substantial interests in recent years. A long-standing discrepancy between theoretical predictions [1] and experimental measurements [2,3] regarding the muon‚Äôs magnetic moment strongly suggests the presence of physics beyond the Standard Model of particle physics (for a recent review,see [4]). Techniques involving muon spectroscopy,such as muon spin rotation and muon-induced X-ray emission [5],have catalyzed advancements in superconductivity,magnetism,and the elemental analysis of archaeological artifacts. A common feature of existing and planned facilities is their reliance on high-power proton accelerators. Most of them operate in a multipurpose mode,where experiments with muons,neutrons,and pions are conducted simultaneously. These facilities currently operate either in a pulsed mode $( 2 5-5 0 \\mathrm { H z }$,e.g.,J-PARC in Japan [6],and ISIS in the UK [7]) or a continuous (DC) mode (e.g.,PSI in Switzerland [8],TRIUMF in Canada [9]). This is also true for the five new muon facilities currently under study at CSNS [10],HIAF/CiADS [11],RAON [12],and FNAL [13]. Given that a typical muon experiment spans roughly ten muon lifetimes,current operating modes result in low-duty cycles for various muon experiments. For instance,precision muon physics with continuous muon beam has been limited by statistical uncertainty. Recently,several authors have noted that the optimal muon source for experiments such as the muon spin rotation $( \\mu \\mathrm { S R } )$ [14],muon electric dipole moment [15,16],and muonium to anti-muonium conversion [17,18] operates in pulsed mode with a repetition rate of several tens of kHz. A non-scaling fixed-field alternating gradient (FFAG) proton accelerator technology with a frequency of a few kHz [19] has been proposed for this purpose,but is still under development [20]. The proton beam to be delivered to Fermilab‚Äôs $\\mathrm { M u } 2 \\mathrm { e }$ experiment [21] has a proton bunch repetition rate of $0 . 5 9 \\mathrm { M H z }$,achieved by resonantly extracting the proton bunch from a delivery ring. However,it is dedicated to the $ { \\mathrm { M u } } 2  { \\mathrm { e } }$ experiment. Recent work at ORNL‚Äôs SNS aimed to extract $5 0 \\mathrm { k H z }$ proton pulses for $\\mu \\mathrm { S R }$ applications,employing laser neutralization on a hydrogen ion beam [22].$$</t>
+  </si>
+  <si>
+    <t>$$The images have been corrected at the level of a few per cent for the nonuniform collection efficiency of the optics. Pixel-to-pixel variations in the CCD offset and a common mode have been subtracted; the signal from X-rays that hit the CCD directly has been eliminated. Simulations. The simulations were done using the quasi-static,three-dimensional,particle-in-cell code called QuickPIC. The three-dimensional computational grid forms a box xy $z ( 2 4 0 \\mu \\mathrm { m } \\times 2 4 0 \\mu \\mathrm { m } \\times 2 6 0 \\mu \\mathrm { m } )$ in size whose axial coordinate is z-ct. Therefore,the simulation window moves at the speed of light,which is very close to the beam speed in the $z$ direction. The number of grid points is $2 5 6 \\times 2 5 6 \\times 5 1 2$ respectively. The beam is initialized so that in vacuum,it would focus $1 5 \\mathrm { c m }$ beyond the start of the lithium vapour with a $1 0 \\mu \\mathrm { m }$ root-mean-square spot size. The longitudinal current profile is extracted from the unique LiTrack simulation that matches the experimentally measured beam spectrum produced by the SLAC accelerator. The resulting current profile approximates a gaussian $( \\sigma _{z} \\approx 1 5 \\mu \\mathrm { m } )$ with a small tail. We use 8.4 million particles for the beam and $2 . 6 \\times 1 0 ^{5}$ particles for each ‚Äòslice‚Äô of lithium. In the quasi-static approximation,as the entire beam moves through a slice of gas,the lithium ionizes,the resulting plasma evolves transversely and,to account for the axial motion,the charge on each particle is suitably changed. The resulting plasma forces are stored for each slice and are then used to advance the momentum and position of each beam electron. The beam electrons are advanced every $1 . 0 \\mathrm { m m }$,which is 1/26th of a betatron wavelength for 42 GeV electrons in the flat density region. The simulations were done on the Apple X-serve Dawson Cluster at UCLA.$$</t>
+  </si>
+  <si>
+    <t>$$The Livingston plot,shown in Figure 1,illustrates how the progress in achieving the energy frontier has been enabled by the history of invention in accelerator science and technology. One can clearly see that over several decades,there has been an exponential growth in the maximum attained energy. But the exponential growth in maximum achieved energy was made possible by the development of different accelerator technologies (for example Electrostatics,Cyclotrons,Linacs,Synchrotrons,Colliders). As often occurs in any technological field,new accelerating technologies often replaced each other once the previous technology had reached its full potential and saturates its evolution curve [1]. In more recent decades,represented by the LHC collider,the exponential energy growth has started slowing down again. This suggests that existing acceleration technologies have reached their maximum potential and further advancements would require the development of new accelerator concepts,possibly based on more compact and cost-effective methods. Promising emerging techniques,such as laser-driven and beam-driven plasma acceleration,have the potential to reestablish the exponential trend in the energy growth depicted by the Livingston plot. Plasma wakefield accelerator relies on a coherent charge density oscillation in a plasma to provide the accelerating force. The plasma oscillation is driven by an externally injected  short pulse,which can be either a laser (LWFA [3]) or an electron beam (PWFA [4]),which blows outward the electrons in an ionized gas (plasma),leaving behind a region of positive charge,as shown in Figure 2. Along the axis where the beam propagates,the electric field causes a trailing pulse of electrons injected near the rear of the bubble to feel a very strong forward acceleration. Gradient up to $1 0 0 \mathrm { ~ G V / m }$ have been observed in several experiments [5]. Difficulties in the plasma scheme arise from the small scales involved (sub-mm transverse diameter),required micrometer tolerances and stability which may cause beam quality degradation with respect to conventional accelerators. But in recent time the plasma generated beam quality has advanced sufficiently to reach the requirements for driving a Free Electron Laser (FEL). There have been several reports of pilot free-electron lasing in plasma-based accelerators: one relying on LWFA by a team in China [6] and one relying on PWFA by the EuPRAXIA team in Frascati [7,8],Italy. Another experiment run by a French and German team has also recently confirmed seeding of the FEL process in a LWFA plasma accelerator [9].$$</t>
+  </si>
+  <si>
+    <t>$$\\vec { B } ( 0,0,z )=\\vec { u } _{y} B _{0} \\sin ( k _{u} z ),$$ where $k _{u}=2 \\pi / \\lambda _{u}$ with $\\lambda _{u}$ the period of the magnetic field,$B _{0}$ is the maximum field and $\\vec { u } _{y}$ is the unit vector in $y$ direction. Due to the Maxwell equations,the curl and divergence of the static magnetic field vanish in vacuum,$\\vec { \\nabla } \\times \\vec { B }=0$ and $\\vec { \\nabla } \\cdot \\vec { B }=0$ . Thus,the field acquires a $z$ component for $y \\ne 0$ $$ \\begin{array} { r c l } { { { \\cal B } _{x} } } &amp; { {=} } &amp; { { 0 } } \\ { { { \\cal B } _{y} } } &amp; { {=} } &amp; { { { \\cal B } _{0} \\cosh ( k _{u} y ) \\sin ( k _{u} z ) } } \\ { { { \\cal B } _{z} } } &amp; { {=} } &amp; { { { \\cal B } _{0} \\sinh ( k _{u} y ) \\cos ( k _{u} z ) . } } \\end{array}$$</t>
+  </si>
+  <si>
+    <t>$$The computed in-phase angular flux density for one case is shown in Fig. 6. New Insertion Device Control System CONCLUSION A new modular ID control system has been designed and built to handle four distinct mechanical support designs in six different combinations with up to 13 axes each (see Fig. 7) [6]. This system provides reliable and precise synchronized motion to control the photon energy to within ${ \\boldsymbol { \\sim } } 1 \\ { \\mathrm { e V } }$ while scanning at speeds of $1 \\ \\mathrm { k e V / s }$ . Modules are installed and are currently undergoing final tests and checkouts prior to ID operations in the storage ring. Delays from supply chain issues were minimal due to the great support from vendors. Development efforts are currently focused on software and automated deployment. New Insertion Device Vacuum Chamber New ID vacuum chambers (IDVCs) were designed and fabricated for the APS-U [7]. The new 5-m-long IDVCs are produced from aluminum alloy extrusions. The interior beam aperture has an elliptical profile of $6 . 3 ~ \\mathrm { { m m } ~ ( h ) ~ \\times }$ $1 6 . 0 \\mathrm { m m }$ (w). The vacuum chamber height,straightness,and wall thickness are some of the important parameters that are machined with tight tolerances. The nominal wall thickness is $0 . 6 \\ \\mathrm { m m }$ . The IDVCs,shown in Fig. 8,are equipped with a photon absorber,ion pump,and non-evaporable getter (NEG) cartridges and are leak checked prior to pre-alignment. The thin-nose surface profile is adjusted to a height within a $\\pm 7 5$-micron tolerance band,and the entire vacuum chamber assembly was adjusted during installation to match the electron-beam axis.$$</t>
+  </si>
+  <si>
+    <t>$$j _{x}+j _{y}+j _{z}=4 . $$ This means that the damping is not uniformly distributed along the three sub-spaces of the phase space (horizontal,vertical and longitudinal),but it is split according to specific partition numbers. These partition numbers are determined by the accelerator lattice,which gives the designers of accelerators some freedom to optimize the damping times. I.10.4 Diffraction limited storage rings The pursuit of higher brilliance and coherence is a driving force in the development of synchrotrons. As we have seen above,while the emission of synchrotron radiation reduces the transverse emittance of the beams in an electron synchrotron,the quantum nature of the radiation imposes a limit on how small the beam will become,and thus set a ceiling on the achievable brilliance. The source size of the $\\mathrm { \\Delta X }$-ray beam is given by the electron beam size in the undulators. We have seen in Section I.10.3.4 that the vertical emittance is typically significantly smaller than the horizontal emittance. The vertical beam size is indeed typically so small that the X-ray beams are diffraction-limited in this dimension.$$</t>
+  </si>
+  <si>
+    <t>$$Here,$d E$ is the dose absorbed and $d N$ is the number of electron-ion pairs created. Electrons are emitted either by inelastic soft collisions that cause excitation and ionization of the atoms or by inelastic hard collisions that knocks on delta ray electrons. There are experimental data on the $w$-value for the secondary electron emission by inelastic soft collisions. The corresponding $w$-value of air ranges from $w=3 2 . 7 \\mathrm { [ J / C ] }$ to $w=3 4 . 5 \\ [ \\mathrm { J / C } ]$ and that of nitrogen ranges from $w=3 5 . 2$ [J/C] to $w=3 5 . 4$ [J/C] [6]. For the $1 . 3 \\mathrm { G e V }$ proton beam energy with $5 3 8 ~ \\mu \\mathrm { A }$ time-averaged beam current at STS,the electron charge production rate $d C / d l$ in an accelerator vacuum pressure $p _{\\mathrm { a c c} }$ . for a unit travel length $d l$ is $$ \\frac { d C } { d l }=3 5 . 6 \\frac { p _{\\mathrm { a c c .} } } { p _{\\mathrm { a t m .} } } \\ [ \\mathrm { m C \\cdot s ^{-1} \\cdot c m ^{-1} } ],$$</t>
+  </si>
+  <si>
+    <t>$$[10] A. Miura,T. Miyao,and K. Moriya,‚ÄúApplication of carbon nanotube wire for beam profile measurement of negative hydrogen ion beam‚Äù,J. Phys.: Conf. Ser.,vol. 1067,p. 072020,2018. doi:10.1088/1742-6596/1067/7/072020 [11] A. Kumar and S. N. Melkote,‚ÄúDiamond Wire Sawing of Solar Silicon Wafers: A Sustainable Manufacturing Alternative to Loose Abrasive Slurry Sawing‚Äù,Procedia Manuf.,vol. 21,pp.549‚Äì566,2018. doi:10.1016/j.promfg.2018.02.156 [12] G. Bellodi et al.,‚ÄúLongitudinal beam profile measurements in Linac4 commissioning‚Äù,in Proc. of LINAC‚Äô14,Geneva,Switzerland,paper MOPP025. pp.108‚Äì110,2014.$$</t>
   </si>
   <si>
     <t>Ischebeck_-_2024_-_I.10_‚Äö√Ñ√Æ_Synchrotron_radiation.pdf</t>
@@ -907,8 +901,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,21 +965,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1023,7 +1009,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1057,7 +1043,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1092,10 +1077,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1268,16 +1252,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1314,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1340,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1366,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1392,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1436,7 +1418,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1462,7 +1444,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1488,7 +1470,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1499,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1546,7 +1528,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1572,7 +1554,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1580,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1624,7 +1606,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1650,7 +1632,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1676,7 +1658,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1684,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1728,7 +1710,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1754,7 +1736,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1762,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1806,7 +1788,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1832,7 +1814,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1858,7 +1840,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1884,7 +1866,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1910,7 +1892,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1936,7 +1918,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1962,7 +1944,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1988,7 +1970,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2014,7 +1996,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2040,7 +2022,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2069,7 +2051,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2095,7 +2077,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2121,7 +2103,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2150,7 +2132,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2176,7 +2158,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2205,7 +2187,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2231,7 +2213,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2257,7 +2239,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2283,7 +2265,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2309,7 +2291,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2335,7 +2317,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2361,7 +2343,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2390,7 +2372,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2416,7 +2398,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2442,7 +2424,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2468,7 +2450,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -2497,7 +2479,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -2526,7 +2508,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2552,7 +2534,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -2578,7 +2560,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2604,7 +2586,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -2630,7 +2612,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -2659,7 +2641,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -2685,7 +2667,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -2711,7 +2693,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -2737,7 +2719,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2763,7 +2745,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2789,7 +2771,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -2815,7 +2797,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -2841,7 +2823,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2867,7 +2849,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -2893,7 +2875,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -2919,7 +2901,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -2945,7 +2927,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -2971,7 +2953,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -2997,7 +2979,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -3023,7 +3005,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -3049,7 +3031,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -3075,7 +3057,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -3101,7 +3083,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -3127,7 +3109,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -3153,7 +3135,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -3179,7 +3161,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -3205,7 +3187,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -3234,7 +3216,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -3260,7 +3242,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -3286,7 +3268,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -3312,7 +3294,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -3338,7 +3320,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -3364,7 +3346,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -3390,7 +3372,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -3416,7 +3398,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -3442,7 +3424,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -3471,7 +3453,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -3500,7 +3482,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -3526,7 +3508,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
         <v>179</v>
       </c>
@@ -3549,7 +3531,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
         <v>180</v>
       </c>
@@ -3575,7 +3557,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -3598,7 +3580,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -3624,7 +3606,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -3647,7 +3629,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -3673,7 +3655,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>97</v>
       </c>

--- a/Final_annotation_disprepancy_latex_fixed.xlsx
+++ b/Final_annotation_disprepancy_latex_fixed.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosydai/Desktop/Master_thesis/Frontend/annotation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBF1EE3-ACF4-2440-80BC-C436C8F053C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -901,8 +907,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,13 +971,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1009,7 +1023,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1043,6 +1057,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1077,9 +1092,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1252,14 +1268,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="9" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1335,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1361,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1387,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1392,7 +1413,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1439,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1444,7 +1465,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1470,7 +1491,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1499,7 +1520,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1528,7 +1549,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1554,7 +1575,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1580,7 +1601,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1606,7 +1627,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1632,7 +1653,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1679,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1684,7 +1705,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1710,7 +1731,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1736,7 +1757,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1762,7 +1783,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1788,7 +1809,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1814,7 +1835,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +1861,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1866,7 +1887,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1892,7 +1913,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1918,7 +1939,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1944,7 +1965,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1970,7 +1991,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1996,7 +2017,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2022,7 +2043,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2051,7 +2072,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2077,7 +2098,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2103,7 +2124,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2132,7 +2153,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2158,7 +2179,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2187,7 +2208,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2213,7 +2234,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2239,7 +2260,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2265,7 +2286,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2291,7 +2312,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2317,7 +2338,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2343,7 +2364,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2372,7 +2393,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2398,7 +2419,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2424,7 +2445,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2450,7 +2471,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -2479,7 +2500,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -2508,7 +2529,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2534,7 +2555,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -2560,7 +2581,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2586,7 +2607,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -2612,7 +2633,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -2641,7 +2662,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -2667,7 +2688,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -2693,7 +2714,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2740,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2745,7 +2766,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2771,7 +2792,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -2797,7 +2818,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -2823,7 +2844,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2849,7 +2870,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -2875,7 +2896,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -2901,7 +2922,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -2927,7 +2948,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -2953,7 +2974,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -2979,7 +3000,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -3005,7 +3026,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -3031,7 +3052,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -3057,7 +3078,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -3083,7 +3104,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -3109,7 +3130,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -3135,7 +3156,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -3161,7 +3182,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -3187,7 +3208,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -3216,7 +3237,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -3242,7 +3263,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -3268,7 +3289,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -3294,7 +3315,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -3320,7 +3341,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -3346,7 +3367,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -3372,7 +3393,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -3398,7 +3419,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -3424,7 +3445,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -3453,7 +3474,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -3482,7 +3503,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -3508,7 +3529,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>179</v>
       </c>
@@ -3531,7 +3552,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>180</v>
       </c>
@@ -3557,7 +3578,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -3580,7 +3601,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -3606,7 +3627,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -3629,7 +3650,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -3655,7 +3676,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>97</v>
       </c>
